--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -5,15 +5,16 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/Graduate School/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Graduate-School/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="8000" yWindow="460" windowWidth="12800" windowHeight="8580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Design" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -251,15 +252,6 @@
     <t>3. NEEDS ANALYSIS - Survey to narrow down design criteria, requirements, constraints for instrument design</t>
   </si>
   <si>
-    <t xml:space="preserve">- show up: lecture on anatomy and the surgery/procedure
-'- live surgical demonstration 
-'- role of endoscopes for diff't surgeries
-19th: MS skills room - surgeons will be trying the surgeries, and I can walk around and what can be improved upon
-- goal: learning  
-- how do we use this to further research - get informal feedback
-'-send the surgeons a note that we will be sending a questionaire later </t>
-  </si>
-  <si>
     <t>during the next couple months</t>
   </si>
   <si>
@@ -289,10 +281,6 @@
   </si>
   <si>
     <t>Actions</t>
-  </si>
-  <si>
-    <t>- read up on past surveys/needs analyses to see how they are presented/formulated
-- nominal group method? Or formal survey?</t>
   </si>
   <si>
     <t xml:space="preserve">surgical skills course October 18 - ask surgeons about their experience a few months after undergoing the course, this survey will include REB consent form
@@ -320,30 +308,57 @@
     <t>- through sickkids iportal can access the forms and fill out the online forms</t>
   </si>
   <si>
-    <t>- remind Dr. James to share his surgery calendar when I get my badge/login
-- look up what to include in a time flow analysis</t>
-  </si>
-  <si>
     <t>- see Dr. Papsin and Dr. Cushing's surgeries as well - can see what the different stages of experience are
 - course and surgeries will give an idea of the challenges
 - goal: characterize the inefficiencies and time each step of the surgery and see how we can move things faster</t>
   </si>
   <si>
+    <t>- search  the suction pedals used online, Hough suction used right now 
+- how does the suction pedal work? what is the plumbing?</t>
+  </si>
+  <si>
+    <t>- ear trimmers</t>
+  </si>
+  <si>
+    <t>- goal: learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- show up: lecture on anatomy and the surgery/procedure
+- live surgical demonstration 
+- role of endoscopes for diff't surgeries
+19th: MS skills room - surgeons will be trying the surgeries, and I can walk around and what can be improved upon
+- how do we use this to further research - get informal feedback
+-send the surgeons a note that we will be sending a questionaire later </t>
+  </si>
+  <si>
     <t xml:space="preserve">- time flow analysis 
 - see if instruments are used together and if we can combine functionalities, is there too much changing of instruments?
 - after you have new instruments, redo the time flow analysis to see if we have improved
-- note which ears are hard to gain access of instruments
 </t>
   </si>
   <si>
-    <t>- search  the suction pedals used online, Hough suction used right now 
-- how does the suction pedal work? what is the plumbing?</t>
-  </si>
-  <si>
-    <t>- ear trimmers</t>
-  </si>
-  <si>
-    <t>hfjhgf</t>
+    <t>- remind Dr. James to share his surgery calendar when I get my badge/login
+- look up what to include in a time flow analysis
+- note which ears are hard to gain access of instruments</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- anatomy </t>
+  </si>
+  <si>
+    <t>- look at instrument catalogues</t>
+  </si>
+  <si>
+    <t>to be discussed with Dr. James</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - survey method: go on RedCap (formal SickKids survey/questionaire method) and formulate and send out the questionaire, use delphi method to figure out the criteria (time consuming) - requires many rounds of survey and group converges to the 'right' answer - this will take a long time but will have time to do, well defined method, more likelyhood of publication, audience will accept this method
+- nominal group method: quicker way to make the decision - many surgeons meet and vote/rank solutions in one meeting - could use this to figure out what questions to ask</t>
+  </si>
+  <si>
+    <t>cleaning obstructed suction tool</t>
   </si>
 </sst>
 </file>
@@ -380,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +405,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA58BFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -481,6 +502,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -831,12 +858,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I31"/>
+  <dimension ref="B1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -847,7 +874,7 @@
     <col min="6" max="6" width="38.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="38.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="57.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="43.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="74.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="32" x14ac:dyDescent="0.2">
@@ -857,6 +884,9 @@
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="G1" s="20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
@@ -876,7 +906,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
@@ -901,7 +931,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="48" x14ac:dyDescent="0.2">
@@ -918,7 +948,7 @@
         <v>31</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="48" x14ac:dyDescent="0.2">
@@ -929,7 +959,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="32" x14ac:dyDescent="0.2">
@@ -940,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:9" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -955,18 +985,20 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="2:9" s="10" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" s="10" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="C11" s="11"/>
       <c r="E11" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="H11" s="12" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="13" customFormat="1" ht="128" x14ac:dyDescent="0.2">
@@ -976,13 +1008,13 @@
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="32" x14ac:dyDescent="0.2">
@@ -1003,9 +1035,6 @@
       <c r="H14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="15" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="F15" s="1" t="s">
@@ -1015,7 +1044,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:9" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -1028,7 +1057,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16" s="11"/>
     </row>
@@ -1060,10 +1089,10 @@
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="3:9" s="13" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -1074,10 +1103,10 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="3:9" s="13" customFormat="1" ht="80" x14ac:dyDescent="0.2">
@@ -1088,7 +1117,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I21" s="14"/>
     </row>
@@ -1107,36 +1136,66 @@
         <v>38</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="64" x14ac:dyDescent="0.2">
       <c r="I24" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="32" x14ac:dyDescent="0.2">
       <c r="I25" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="32" x14ac:dyDescent="0.2">
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="48" x14ac:dyDescent="0.2">
       <c r="I31" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I35" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="460" windowWidth="12800" windowHeight="8580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28760" windowHeight="16340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Notes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -359,6 +359,35 @@
   </si>
   <si>
     <t>cleaning obstructed suction tool</t>
+  </si>
+  <si>
+    <t>- Survey done by Imperial College (Nandi et al.) for endoscopic neurosurgery: 20 participants until saturation of responses
+1. how experienced with endoscopic neurosurgery
+2. what are major technical barriers? 
+3. what tech advances would improve safety and efficacy in the field
+- outlines how to send out the survey</t>
+  </si>
+  <si>
+    <t>- one application for questionairre, time flow analysis and testing instruments on patients later (once they are developed)</t>
+  </si>
+  <si>
+    <t>- include separately: document outlining the introduction - method - results of the survey, the survey/questionairre, time flow analysis steps, budget and which grant is funding this work</t>
+  </si>
+  <si>
+    <t>workspace analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-determine the workspace that is available to use tools in 
+- what are the obstacles? </t>
+  </si>
+  <si>
+    <t>- scan of 7 year old boy available through CIGITI - make into 3D model of ear canal, include the ear drum (may have to overlay)
+- start with feeding in/analyzing a very simple tool eg. One bend and then add more functionalities/mechanisms to the tool and analyze how they will be able to move in the worskpace
+'- need to constrain the movement of tool in the model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- obtain scan of the boy and make into 3D model 
+'- familiarize with software at CIGITI computer </t>
   </si>
 </sst>
 </file>
@@ -415,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -458,11 +487,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -508,6 +546,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -858,12 +903,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I36"/>
+  <dimension ref="B1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -875,6 +920,7 @@
     <col min="7" max="7" width="38.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="57.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="74.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="32" x14ac:dyDescent="0.2">
@@ -1061,7 +1107,7 @@
       </c>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1069,7 +1115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="3:9" s="10" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:10" s="10" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="C18" s="11"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -1079,7 +1125,7 @@
       </c>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="3:9" s="13" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:10" s="13" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="C19" s="14"/>
       <c r="E19" s="15" t="s">
         <v>48</v>
@@ -1094,8 +1140,11 @@
       <c r="I19" s="19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="3:9" s="13" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="J19" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="C20" s="14"/>
       <c r="E20" s="14" t="s">
         <v>39</v>
@@ -1109,7 +1158,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="3:9" s="13" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:10" s="13" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="C21" s="14"/>
       <c r="E21" s="17" t="s">
         <v>42</v>
@@ -1121,7 +1170,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="3:9" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:10" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="C22" s="11"/>
       <c r="E22" s="16" t="s">
         <v>45</v>
@@ -1131,55 +1180,86 @@
       <c r="H22" s="16"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:10" ht="32" x14ac:dyDescent="0.2">
       <c r="E23" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="H23" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="I23" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:10" ht="32" x14ac:dyDescent="0.2">
       <c r="I24" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I25" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="E30" s="1" t="s">
+    <row r="26" spans="3:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="I26" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C30" s="21"/>
+      <c r="E30" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:10" ht="32" x14ac:dyDescent="0.2">
       <c r="I31" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E34" s="1" t="s">
+    <row r="34" spans="3:9" s="13" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="C34" s="14"/>
+      <c r="E34" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="21"/>
+      <c r="E35" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I35" s="3" t="s">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I36" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E36" s="1" t="s">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E37" s="1" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28760" windowHeight="16340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="28760" windowHeight="16340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Notes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -317,9 +317,6 @@
 - how does the suction pedal work? what is the plumbing?</t>
   </si>
   <si>
-    <t>- ear trimmers</t>
-  </si>
-  <si>
     <t>- goal: learning</t>
   </si>
   <si>
@@ -337,11 +334,6 @@
 </t>
   </si>
   <si>
-    <t>- remind Dr. James to share his surgery calendar when I get my badge/login
-- look up what to include in a time flow analysis
-- note which ears are hard to gain access of instruments</t>
-  </si>
-  <si>
     <t>General</t>
   </si>
   <si>
@@ -352,10 +344,6 @@
   </si>
   <si>
     <t>to be discussed with Dr. James</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - survey method: go on RedCap (formal SickKids survey/questionaire method) and formulate and send out the questionaire, use delphi method to figure out the criteria (time consuming) - requires many rounds of survey and group converges to the 'right' answer - this will take a long time but will have time to do, well defined method, more likelyhood of publication, audience will accept this method
-- nominal group method: quicker way to make the decision - many surgeons meet and vote/rank solutions in one meeting - could use this to figure out what questions to ask</t>
   </si>
   <si>
     <t>cleaning obstructed suction tool</t>
@@ -389,12 +377,98 @@
     <t xml:space="preserve">- obtain scan of the boy and make into 3D model 
 '- familiarize with software at CIGITI computer </t>
   </si>
+  <si>
+    <t xml:space="preserve">- ear trimmers - ordered 
+- </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- remind Dr. James to share his surgery calendar when I get my badge/login
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>- lliterature search for time flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- note which ears are hard to gain access of instruments</t>
+    </r>
+  </si>
+  <si>
+    <t>time flow and questionaire</t>
+  </si>
+  <si>
+    <t>validation of instruments</t>
+  </si>
+  <si>
+    <t>in OR and in 3D printed model</t>
+  </si>
+  <si>
+    <t>- record time and number of changes to scissors</t>
+  </si>
+  <si>
+    <t>choosing committee</t>
+  </si>
+  <si>
+    <t>materials science and force required to choose the size of the tubing if using concentric tubes</t>
+  </si>
+  <si>
+    <t>what are the main technical hurdles that will take most time? - make a list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choosing size of tool - worskpace analysis and forces </t>
+  </si>
+  <si>
+    <t>mitacs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patent a modified instrument through sickkids </t>
+  </si>
+  <si>
+    <t>think about people who would be useful based on their experience/knowledge</t>
+  </si>
+  <si>
+    <t>- check about these requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - survey method: go on RedCap (formal SickKids survey/questionaire method) and formulate and send out the questionaire, use delphi method to figure out the criteria (time consuming) - requires many rounds of survey and group converges to the 'right' answer - this will take a long time but will have time to do, well defined method, more likelyhood of publication, audience will accept this method
+- nominal group method: quicker way to make the decision - many surgeons meet and vote/rank solutions in one meeting - could use this to figure out what questions to ask
+- quality function deployment - use matrices how well the design satisfies user's needs (look this up) - Jan has done this before, used in rehab engineering, can be used to design the questionaire and time flow study 
+- 6 months</t>
+  </si>
+  <si>
+    <t>structure of thesis?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isolate ear drum from CT scan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">print a model of the whole ear canal, scaled up 5X </t>
+  </si>
+  <si>
+    <t>how much to bend laser before fibres break</t>
+  </si>
+  <si>
+    <t>weld thomisin end effector onto a 19Fr suction tube, bend 19Fr sucker into same curvature as rosen and file it to sharpen the end and either put suction hole on the lateral or medial end.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -423,8 +497,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +519,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4185"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -553,6 +644,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -563,9 +672,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF4185"/>
       <color rgb="FF79F9C3"/>
       <color rgb="FFA58BFF"/>
-      <color rgb="FFFF4185"/>
     </mruColors>
   </colors>
   <extLst>
@@ -841,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -903,12 +1012,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J37"/>
+  <dimension ref="B1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -931,7 +1040,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
@@ -1033,23 +1142,23 @@
     </row>
     <row r="11" spans="2:9" s="10" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="C11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="24" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="I11" s="12" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="13" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="C12" s="14"/>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="25" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="14"/>
@@ -1057,10 +1166,10 @@
         <v>66</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="32" x14ac:dyDescent="0.2">
@@ -1125,28 +1234,30 @@
       </c>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="3:10" s="13" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:10" s="13" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="C19" s="14"/>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="26" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="H19" s="17" t="s">
         <v>59</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="3:10" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="C20" s="14"/>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="14"/>
@@ -1181,11 +1292,11 @@
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="3:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="27" t="s">
         <v>38</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>49</v>
@@ -1203,12 +1314,12 @@
     </row>
     <row r="26" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="I26" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="3:10" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="C30" s="21"/>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="28" t="s">
         <v>53</v>
       </c>
       <c r="F30" s="21"/>
@@ -1225,42 +1336,112 @@
         <v>57</v>
       </c>
     </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I32" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="34" spans="3:9" s="13" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="C34" s="14"/>
-      <c r="E34" s="14" t="s">
-        <v>82</v>
+      <c r="E34" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="3:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C35" s="21"/>
       <c r="E35" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I36" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E37" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="E39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="E40" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="E42" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E43" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E44" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E45" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="E46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E47" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="E48" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="28760" windowHeight="16340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="28760" windowHeight="16340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Notes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -293,9 +293,6 @@
 - right now when it is disengaged, it is still sucking in air which is noisy</t>
   </si>
   <si>
-    <t>- print some anatomy at the lab to practice</t>
-  </si>
-  <si>
     <t>give these out as a present to the visiting international surgeons and can ask them if they are using them and if they are useful</t>
   </si>
   <si>
@@ -425,12 +422,6 @@
     <t>materials science and force required to choose the size of the tubing if using concentric tubes</t>
   </si>
   <si>
-    <t>what are the main technical hurdles that will take most time? - make a list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choosing size of tool - worskpace analysis and forces </t>
-  </si>
-  <si>
     <t>mitacs</t>
   </si>
   <si>
@@ -462,6 +453,48 @@
   </si>
   <si>
     <t>weld thomisin end effector onto a 19Fr suction tube, bend 19Fr sucker into same curvature as rosen and file it to sharpen the end and either put suction hole on the lateral or medial end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suction tube that can slide down the endoscope </t>
+  </si>
+  <si>
+    <t>- like the rosen pusher but removable and can be locked onto the endoscope and at the handle, finger can be used to slide sucker down. Problem - may not be able to see the sucker while being slid down and could potentially cause a problem?</t>
+  </si>
+  <si>
+    <t>- print some anatomy at the lab to practice - need CT scan from Dr. James</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Hurdles: </t>
+  </si>
+  <si>
+    <t>questionaire</t>
+  </si>
+  <si>
+    <t>how to develop using RedCap
+how to analyze using statistical approach (refer to papers)</t>
+  </si>
+  <si>
+    <t>feeding CT scan into program that can determine curvature and length of tool required to reach specific targets (available in the lab)
+need to define how many degrees of freedom (roll, pitch, yaw) we can have vs. how many we need (as determined by the analysis)</t>
+  </si>
+  <si>
+    <t>fabrication of instruments</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>milling and shaping small pieces of metal - nitinol can be preshaped using heat and a 'stencil'
+how to optimize design of the handle for ergonomics
+prototyping the mechanical mechanism to actuate the tool</t>
+  </si>
+  <si>
+    <t>workspace analysis to determine the size of the instruments</t>
+  </si>
+  <si>
+    <t>testing tool inside a 3D printed model
+need to simulate the semi-wet environment
+do we need to simulate soft tissues?</t>
   </si>
 </sst>
 </file>
@@ -503,7 +536,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,12 +558,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4185"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1012,12 +1039,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J48"/>
+  <dimension ref="B1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,9 +1057,11 @@
     <col min="8" max="8" width="57.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="74.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="50.5" customWidth="1"/>
+    <col min="11" max="11" width="48.1640625" customWidth="1"/>
+    <col min="12" max="12" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>26</v>
       </c>
@@ -1040,10 +1069,10 @@
         <v>27</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>24</v>
       </c>
@@ -1051,7 +1080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -1059,17 +1088,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
@@ -1088,8 +1117,11 @@
       <c r="I6" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="J6" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="48" x14ac:dyDescent="0.2">
       <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1103,10 +1135,16 @@
         <v>31</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="96" x14ac:dyDescent="0.2">
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1116,8 +1154,14 @@
       <c r="H8" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="J8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="80" x14ac:dyDescent="0.2">
       <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1171,14 @@
       <c r="H9" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="J9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="C10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
@@ -1139,40 +1189,47 @@
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="2:9" s="10" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="J10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="2:12" s="10" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="C11" s="11"/>
       <c r="E11" s="24" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="I11" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" s="13" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="13" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="C12" s="14"/>
       <c r="E12" s="25" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="32" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1180,7 +1237,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" ht="48" x14ac:dyDescent="0.2">
       <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1191,7 +1248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" ht="32" x14ac:dyDescent="0.2">
       <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1202,7 +1259,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:9" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="C16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11" t="s">
@@ -1243,16 +1300,16 @@
         <v>38</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>59</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="3:10" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -1266,7 +1323,7 @@
         <v>60</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="3:10" s="13" customFormat="1" ht="80" x14ac:dyDescent="0.2">
@@ -1296,7 +1353,7 @@
         <v>38</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>49</v>
@@ -1304,17 +1361,17 @@
     </row>
     <row r="24" spans="3:10" ht="32" x14ac:dyDescent="0.2">
       <c r="I24" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="I26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="3:10" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -1325,10 +1382,10 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="31" spans="3:10" ht="32" x14ac:dyDescent="0.2">
@@ -1338,110 +1395,113 @@
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I32" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="3:9" s="13" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="C34" s="14"/>
       <c r="E34" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="I34" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="35" spans="3:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C35" s="21"/>
       <c r="E35" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="I36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="39" spans="3:9" ht="32" x14ac:dyDescent="0.2">
       <c r="E39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="3:9" ht="32" x14ac:dyDescent="0.2">
       <c r="E40" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="E42" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E42" s="29"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E43" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E44" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E45" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="3:9" ht="32" x14ac:dyDescent="0.2">
       <c r="E46" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E47" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="3:9" ht="64" x14ac:dyDescent="0.2">
       <c r="E48" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="E49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -470,31 +470,37 @@
     <t>questionaire</t>
   </si>
   <si>
-    <t>how to develop using RedCap
-how to analyze using statistical approach (refer to papers)</t>
-  </si>
-  <si>
-    <t>feeding CT scan into program that can determine curvature and length of tool required to reach specific targets (available in the lab)
-need to define how many degrees of freedom (roll, pitch, yaw) we can have vs. how many we need (as determined by the analysis)</t>
-  </si>
-  <si>
     <t>fabrication of instruments</t>
   </si>
   <si>
     <t>testing</t>
   </si>
   <si>
-    <t>milling and shaping small pieces of metal - nitinol can be preshaped using heat and a 'stencil'
-how to optimize design of the handle for ergonomics
-prototyping the mechanical mechanism to actuate the tool</t>
-  </si>
-  <si>
     <t>workspace analysis to determine the size of the instruments</t>
   </si>
   <si>
-    <t>testing tool inside a 3D printed model
-need to simulate the semi-wet environment
-do we need to simulate soft tissues?</t>
+    <t>- need CT scan
+- can 3D model be used for a class?</t>
+  </si>
+  <si>
+    <t>- how to develop using RedCap
+- how to analyze using statistical approach (refer to papers)</t>
+  </si>
+  <si>
+    <t>- milling and shaping small pieces of metal - nitinol can be preshaped using heat and a 'stencil'
+- how to optimize design of the handle for ergonomics
+- prototyping the mechanical mechanism to actuate the tool</t>
+  </si>
+  <si>
+    <t>- feeding CT scan into program that can determine curvature and length of tool required to reach specific targets (available in the lab)
+- need to define how many degrees of freedom (roll, pitch, yaw) we can have vs. how many we need (as determined by the analysis)
+- calculate the appropriate diameter of nitinol tubes based on required force and flexion</t>
+  </si>
+  <si>
+    <t>- testing tool inside a 3D printed model
+- simulating semi-wet environment
+- simulating blood
+- do we need to simulate soft tissues?</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1047,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1140,11 +1146,11 @@
       <c r="J7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="96" x14ac:dyDescent="0.2">
+      <c r="K7" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="128" x14ac:dyDescent="0.2">
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1155,10 +1161,10 @@
         <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="80" x14ac:dyDescent="0.2">
@@ -1172,13 +1178,13 @@
         <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="10" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="C10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
@@ -1190,10 +1196,10 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="L10" s="11"/>
     </row>
@@ -1484,6 +1490,9 @@
       </c>
       <c r="G46" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -501,6 +501,12 @@
 - simulating semi-wet environment
 - simulating blood
 - do we need to simulate soft tissues?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- open CT scan and ensure can't see a name on it </t>
+  </si>
+  <si>
+    <t>- look up delphi method use (library and papers) and use of delphi method to analyse survey results</t>
   </si>
 </sst>
 </file>
@@ -1045,12 +1051,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L49"/>
+  <dimension ref="B1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1505,12 +1511,22 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="5:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:9" ht="96" x14ac:dyDescent="0.2">
       <c r="E49" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="I51" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -497,16 +497,16 @@
 - calculate the appropriate diameter of nitinol tubes based on required force and flexion</t>
   </si>
   <si>
+    <t xml:space="preserve">- open CT scan and ensure can't see a name on it </t>
+  </si>
+  <si>
+    <t>- look up delphi method use (library and papers) and use of delphi method to analyse survey results</t>
+  </si>
+  <si>
     <t>- testing tool inside a 3D printed model
 - simulating semi-wet environment
-- simulating blood
+- simulating blood - hang an IV bag  with red dyed water that is pressurized that will create blood flow
 - do we need to simulate soft tissues?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- open CT scan and ensure can't see a name on it </t>
-  </si>
-  <si>
-    <t>- look up delphi method use (library and papers) and use of delphi method to analyse survey results</t>
   </si>
 </sst>
 </file>
@@ -1053,10 +1053,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1190,7 +1190,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="2:12" s="10" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" s="10" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="C10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
@@ -1205,7 +1205,7 @@
         <v>106</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L10" s="11"/>
     </row>
@@ -1521,12 +1521,12 @@
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.2">
       <c r="I50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="5:9" ht="32" x14ac:dyDescent="0.2">
       <c r="I51" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="28760" windowHeight="16340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Notes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -508,12 +508,102 @@
 - simulating blood - hang an IV bag  with red dyed water that is pressurized that will create blood flow
 - do we need to simulate soft tissues?</t>
   </si>
+  <si>
+    <t>reb - survey and time flow because we are reporting the surgeon's responses in research</t>
+  </si>
+  <si>
+    <t>rhino for developing the shape of the tool to help define unusual geometries</t>
+  </si>
+  <si>
+    <t>Tool Design Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time </t>
+  </si>
+  <si>
+    <t>Suction</t>
+  </si>
+  <si>
+    <t>Tip (function)</t>
+  </si>
+  <si>
+    <t>Body (shape)</t>
+  </si>
+  <si>
+    <t>Design Requirements/Criteria being addressed</t>
+  </si>
+  <si>
+    <t>Ranking/ Importance</t>
+  </si>
+  <si>
+    <t>reach</t>
+  </si>
+  <si>
+    <t>grip
+maneuverability</t>
+  </si>
+  <si>
+    <t>blood management
+grip</t>
+  </si>
+  <si>
+    <t>Tip flexibility</t>
+  </si>
+  <si>
+    <t>- shape of main body may include a curve or bend and need to calculate bend angle, radius of curvature and position along the shaft</t>
+  </si>
+  <si>
+    <t>- CT scan -&gt; 3D computer model with endoscope and orientation space</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- tip orientation
+- workspace analysis will determine what kind of tip is required to perform desired function - forceps, curette, needle, etc. 
+- tip stiffness
+- tip size </t>
+  </si>
+  <si>
+    <t>Tests/Resources Required</t>
+  </si>
+  <si>
+    <t>- capture the workspace using electromagnetic sensors on the tip of Rosen needle to track position 
+'- test stiffness - use force sensor, quantify force applied (?)</t>
+  </si>
+  <si>
+    <t>- size =  19 gauge tube which is the smallest suction Dr. James uses without it getting clogged
+- stiffness - tube wall thickness</t>
+  </si>
+  <si>
+    <t>- test tip stiffness - relates to the Tip design</t>
+  </si>
+  <si>
+    <t>- joint - slotted wrist or concentric tubes</t>
+  </si>
+  <si>
+    <t>Handle Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- size of nitinol tubes
+- friction
+- stiffness of tip </t>
+  </si>
+  <si>
+    <t>ease of use</t>
+  </si>
+  <si>
+    <t>- need grip to be like a pen to actuate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- friction to retain shape once fixed, but not requiring too much force </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -547,8 +637,22 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,6 +674,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4185"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -701,6 +817,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1051,12 +1174,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L51"/>
+  <dimension ref="B1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView showRuler="0" topLeftCell="D1" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1529,6 +1652,16 @@
         <v>113</v>
       </c>
     </row>
+    <row r="52" spans="5:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="E52" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="E53" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1536,12 +1669,115 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="26.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="48.83203125" customWidth="1"/>
+    <col min="7" max="7" width="59.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="31"/>
+    </row>
+    <row r="2" spans="2:7" s="34" customFormat="1" ht="38" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="B3" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B4" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B5" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B6" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Graduate-School/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16305" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Design" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Tool Design Matrix" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -277,9 +272,6 @@
 - quantify how much force is required to perform the intended function -  need to use this to figure out what material properties or geometry the tip has</t>
   </si>
   <si>
-    <t>- barber supply shop at dundas and bay - $28  buy a few hair trimmers 'groom-mate', or find cheaper ones  - sterilizable, keep receipt</t>
-  </si>
-  <si>
     <t>Actions</t>
   </si>
   <si>
@@ -369,10 +361,6 @@
     <t>- scan of 7 year old boy available through CIGITI - make into 3D model of ear canal, include the ear drum (may have to overlay)
 - start with feeding in/analyzing a very simple tool eg. One bend and then add more functionalities/mechanisms to the tool and analyze how they will be able to move in the worskpace
 '- need to constrain the movement of tool in the model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- obtain scan of the boy and make into 3D model 
-'- familiarize with software at CIGITI computer </t>
   </si>
   <si>
     <t xml:space="preserve">- ear trimmers - ordered 
@@ -598,12 +586,17 @@
   <si>
     <t xml:space="preserve">- friction to retain shape once fixed, but not requiring too much force </t>
   </si>
+  <si>
+    <t>- crop 3D model so it just has the triangular part after the ear canal
+- add endoscope
+- set up experiment where electromagnetic electrode is on the end of a tool and can be tracked inside a 3D model</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -890,7 +883,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -925,7 +918,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1102,29 +1095,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showRuler="0" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="122.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="68.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="122.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="144" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" ht="141.75">
       <c r="B3" s="2">
         <v>42348</v>
       </c>
@@ -1146,22 +1139,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" ht="47.25">
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="208" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="204.75">
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="144" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" ht="141.75">
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="47.25">
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1173,30 +1166,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L53"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="D1" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="41" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="57.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="74.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="38.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="57.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="74.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="50.5" customWidth="1"/>
-    <col min="11" max="11" width="48.1640625" customWidth="1"/>
+    <col min="11" max="11" width="48.125" customWidth="1"/>
     <col min="12" max="12" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" ht="31.5">
       <c r="B1" s="6" t="s">
         <v>26</v>
       </c>
@@ -1204,10 +1197,10 @@
         <v>27</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
       <c r="B2" s="6" t="s">
         <v>24</v>
       </c>
@@ -1215,7 +1208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" ht="31.5">
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -1223,17 +1216,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12">
       <c r="B4" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12">
       <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12">
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
@@ -1250,13 +1243,13 @@
         <v>34</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="48" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="63">
       <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1270,16 +1263,16 @@
         <v>31</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="K7" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="128" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="126">
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1290,13 +1283,13 @@
         <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="80" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="78.75">
       <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1307,13 +1300,13 @@
         <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" s="10" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="10" customFormat="1" ht="78.75">
       <c r="C10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
@@ -1325,46 +1318,46 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="2:12" s="10" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" s="10" customFormat="1" ht="126">
       <c r="C11" s="11"/>
       <c r="E11" s="24" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="I11" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" s="13" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="13" customFormat="1" ht="126">
       <c r="C12" s="14"/>
       <c r="E12" s="25" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="31.5">
       <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1372,7 +1365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" ht="47.25">
       <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1383,7 +1376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" ht="31.5">
       <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:12" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" s="10" customFormat="1" ht="31.5">
       <c r="C16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11" t="s">
@@ -1408,7 +1401,7 @@
       </c>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:10">
       <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1416,7 +1409,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="3:10" s="10" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:10" s="10" customFormat="1" ht="63">
       <c r="C18" s="11"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -1426,7 +1419,7 @@
       </c>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="3:10" s="13" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:10" s="13" customFormat="1" ht="173.25">
       <c r="C19" s="14"/>
       <c r="E19" s="26" t="s">
         <v>48</v>
@@ -1435,19 +1428,19 @@
         <v>38</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" s="13" customFormat="1" ht="47.25">
       <c r="C20" s="14"/>
       <c r="E20" s="25" t="s">
         <v>39</v>
@@ -1455,13 +1448,13 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" s="13" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" s="13" customFormat="1" ht="78.75">
       <c r="C21" s="14"/>
       <c r="E21" s="17" t="s">
         <v>42</v>
@@ -1473,7 +1466,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="3:10" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:10" s="10" customFormat="1" ht="31.5">
       <c r="C22" s="11"/>
       <c r="E22" s="16" t="s">
         <v>45</v>
@@ -1483,33 +1476,33 @@
       <c r="H22" s="16"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="3:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:10" ht="31.5">
       <c r="E23" s="27" t="s">
         <v>38</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="3:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:10" ht="31.5">
       <c r="I24" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="I25" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I25" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:10" ht="47.25">
       <c r="I26" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10" s="22" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" s="22" customFormat="1" ht="31.5">
       <c r="C30" s="21"/>
       <c r="E30" s="28" t="s">
         <v>53</v>
@@ -1517,149 +1510,147 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="I31" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="3:10">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="3:10">
       <c r="I32" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" s="13" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" s="13" customFormat="1" ht="94.5">
       <c r="C34" s="14"/>
       <c r="E34" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="H34" s="15" t="s">
-        <v>80</v>
-      </c>
       <c r="I34" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" s="22" customFormat="1">
       <c r="C35" s="21"/>
       <c r="E35" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="I36" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="I36" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:9">
       <c r="E37" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9">
       <c r="E38" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="31.5">
+      <c r="E39" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="3:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="E39" s="1" t="s">
+      <c r="G39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="31.5">
+      <c r="E40" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="E42" s="29"/>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="E43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I39" s="3" t="s">
+    </row>
+    <row r="44" spans="3:9">
+      <c r="E44" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="E45" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="E40" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E42" s="29"/>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E43" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E44" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E45" s="1" t="s">
+    <row r="46" spans="3:9" ht="31.5">
+      <c r="E46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="46" spans="3:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="E46" s="1" t="s">
+      <c r="I46" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9">
+      <c r="E47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G46" s="1" t="s">
+    </row>
+    <row r="48" spans="3:9" ht="63">
+      <c r="E48" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E47" s="1" t="s">
+    </row>
+    <row r="49" spans="5:9" ht="94.5">
+      <c r="E49" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="48" spans="3:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="E48" s="1" t="s">
+      <c r="G49" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="5:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="E49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:9">
       <c r="I50" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="5:9" ht="32" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" ht="31.5">
       <c r="I51" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" ht="31.5">
+      <c r="E52" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="5:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="E52" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="5:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:9" ht="31.5">
       <c r="E53" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1668,113 +1659,113 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="48.83203125" customWidth="1"/>
-    <col min="7" max="7" width="59.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="48.875" customWidth="1"/>
+    <col min="7" max="7" width="59.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" s="30" customFormat="1">
       <c r="B1" s="31"/>
     </row>
-    <row r="2" spans="2:7" s="34" customFormat="1" ht="38" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" s="34" customFormat="1" ht="37.5">
       <c r="B2" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="94.5">
+      <c r="B3" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="47.25">
+      <c r="B4" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="47.25">
+      <c r="B5" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="47.25">
+      <c r="B6" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B4" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B5" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G6" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="32" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B6" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="G7" s="33" t="s">
         <v>139</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16305" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16305" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Notes" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="144">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -294,9 +294,6 @@
     <t>- do the online tutorial (see email, it is on the REB website) - http://www.sickkids.ca/Research/REB/Training/index.html</t>
   </si>
   <si>
-    <t>- through sickkids iportal can access the forms and fill out the online forms</t>
-  </si>
-  <si>
     <t>- see Dr. Papsin and Dr. Cushing's surgeries as well - can see what the different stages of experience are
 - course and surgeries will give an idea of the challenges
 - goal: characterize the inefficiencies and time each step of the surgery and see how we can move things faster</t>
@@ -332,9 +329,6 @@
     <t>- look at instrument catalogues</t>
   </si>
   <si>
-    <t>to be discussed with Dr. James</t>
-  </si>
-  <si>
     <t>cleaning obstructed suction tool</t>
   </si>
   <si>
@@ -343,12 +337,6 @@
 2. what are major technical barriers? 
 3. what tech advances would improve safety and efficacy in the field
 - outlines how to send out the survey</t>
-  </si>
-  <si>
-    <t>- one application for questionairre, time flow analysis and testing instruments on patients later (once they are developed)</t>
-  </si>
-  <si>
-    <t>- include separately: document outlining the introduction - method - results of the survey, the survey/questionairre, time flow analysis steps, budget and which grant is funding this work</t>
   </si>
   <si>
     <t>workspace analysis</t>
@@ -497,9 +485,6 @@
 - do we need to simulate soft tissues?</t>
   </si>
   <si>
-    <t>reb - survey and time flow because we are reporting the surgeon's responses in research</t>
-  </si>
-  <si>
     <t>rhino for developing the shape of the tool to help define unusual geometries</t>
   </si>
   <si>
@@ -590,13 +575,52 @@
     <t>- crop 3D model so it just has the triangular part after the ear canal
 - add endoscope
 - set up experiment where electromagnetic electrode is on the end of a tool and can be tracked inside a 3D model</t>
+  </si>
+  <si>
+    <t>publish--&gt;</t>
+  </si>
+  <si>
+    <t>Publish--&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- one application for questionairre, time flow analysis and testing instruments on patients later (once they are developed)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Main Application: Needs Assessment -&gt; part 1: survey part 2: time flow study
+2. Amendment: Cholesteatoma study -&gt; add that CT scans will be used for research purposes to make 3D printed models
+3. Main Application: Validation testing of new tools -&gt; requires REB and regulatory (RQRM) ask Ryan Singh more about it when the tools are developed almost fully</t>
+    </r>
+  </si>
+  <si>
+    <t>order tools from Panetti -&gt; bend them in the appropriate angles as a result of the workspace study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- shave down the edges </t>
+  </si>
+  <si>
+    <t>SGS conference grant</t>
+  </si>
+  <si>
+    <t>forceps in the shape of Rosen needle</t>
+  </si>
+  <si>
+    <t>make a chronology of all instruments talked about and why we abandoned certain ideas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -640,6 +664,21 @@
     <font>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -739,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -784,17 +823,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -817,6 +850,20 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1095,7 +1142,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1167,12 +1214,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L53"/>
+  <dimension ref="B1:L55"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D1" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1196,9 +1243,7 @@
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="2:12">
       <c r="B2" s="6" t="s">
@@ -1246,7 +1291,7 @@
         <v>57</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="63">
@@ -1263,13 +1308,13 @@
         <v>31</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="126">
@@ -1283,10 +1328,10 @@
         <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="78.75">
@@ -1300,10 +1345,10 @@
         <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:12" s="10" customFormat="1" ht="78.75">
@@ -1318,43 +1363,43 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="2:12" s="10" customFormat="1" ht="126">
-      <c r="C11" s="11"/>
-      <c r="E11" s="24" t="s">
+    <row r="11" spans="2:12" s="35" customFormat="1" ht="78.75">
+      <c r="C11" s="36"/>
+      <c r="E11" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12" t="s">
+      <c r="F11" s="36"/>
+      <c r="G11" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>80</v>
+      <c r="I11" s="38" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:12" s="13" customFormat="1" ht="126">
       <c r="C12" s="14"/>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="31.5">
@@ -1363,6 +1408,9 @@
       </c>
       <c r="H13" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="47.25">
@@ -1421,28 +1469,31 @@
     </row>
     <row r="19" spans="3:10" s="13" customFormat="1" ht="173.25">
       <c r="C19" s="14"/>
-      <c r="E19" s="26" t="s">
+      <c r="D19" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>58</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="3:10" s="13" customFormat="1" ht="47.25">
       <c r="C20" s="14"/>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="14"/>
@@ -1451,7 +1502,7 @@
         <v>59</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="3:10" s="13" customFormat="1" ht="78.75">
@@ -1476,12 +1527,12 @@
       <c r="H22" s="16"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="3:10" ht="31.5">
-      <c r="E23" s="27" t="s">
+    <row r="23" spans="3:10" ht="141.75">
+      <c r="E23" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>75</v>
+      <c r="H23" s="34" t="s">
+        <v>138</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>49</v>
@@ -1493,168 +1544,180 @@
       </c>
     </row>
     <row r="25" spans="3:10">
-      <c r="I25" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" ht="47.25">
-      <c r="I26" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10" s="22" customFormat="1" ht="31.5">
-      <c r="C30" s="21"/>
-      <c r="E30" s="28" t="s">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="30" spans="3:10" s="21" customFormat="1" ht="31.5">
+      <c r="C30" s="20"/>
+      <c r="E30" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21" t="s">
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="3:10">
-      <c r="I31" s="3"/>
+      <c r="I31" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="32" spans="3:10">
       <c r="I32" s="3" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="3:9" s="13" customFormat="1" ht="94.5">
       <c r="C34" s="14"/>
-      <c r="E34" s="25" t="s">
-        <v>77</v>
+      <c r="D34" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" s="22" customFormat="1">
-      <c r="C35" s="21"/>
-      <c r="E35" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" s="21" customFormat="1">
+      <c r="C35" s="20"/>
+      <c r="E35" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="22" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="23" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="36" spans="3:9">
       <c r="I36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="3:9">
       <c r="E37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="3:9">
       <c r="E38" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="3:9" ht="31.5">
       <c r="E39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="I39" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="3:9" ht="31.5">
       <c r="E40" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="3:9">
-      <c r="E42" s="29"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" spans="3:9">
       <c r="E43" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="3:9">
       <c r="E44" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="3:9">
       <c r="E45" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="3:9" ht="31.5">
       <c r="E46" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="3:9">
       <c r="E47" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="3:9" ht="63">
       <c r="E48" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="5:9" ht="94.5">
       <c r="E49" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="I50" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="5:9" ht="31.5">
       <c r="I51" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="5:9" ht="31.5">
       <c r="E52" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="5:9" ht="31.5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9">
       <c r="E53" s="1" t="s">
-        <v>114</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9">
+      <c r="E54" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" ht="31.5">
+      <c r="E55" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1662,110 +1725,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="26.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="48.875" customWidth="1"/>
     <col min="7" max="7" width="59.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="30" customFormat="1">
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="2:7" s="34" customFormat="1" ht="37.5">
-      <c r="B2" s="34" t="s">
+    <row r="1" spans="2:7" s="28" customFormat="1">
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="2:7" s="32" customFormat="1" ht="37.5">
+      <c r="B2" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="94.5">
+      <c r="B3" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="47.25">
+      <c r="B4" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="47.25">
+      <c r="B5" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="47.25">
+      <c r="B6" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="34" t="s">
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="30" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="94.5">
-      <c r="B3" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="47.25">
-      <c r="B4" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="47.25">
-      <c r="B5" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C7" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="F7" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="47.25">
-      <c r="B6" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="G7" s="31" t="s">
         <v>134</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Graduate-School/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16305" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Notes" sheetId="1" r:id="rId1"/>
@@ -247,9 +252,6 @@
     <t>3. NEEDS ANALYSIS - Survey to narrow down design criteria, requirements, constraints for instrument design</t>
   </si>
   <si>
-    <t>during the next couple months</t>
-  </si>
-  <si>
     <t>- Dr. James to note which ears are difficult to access and make models of those to test instrument accessibility/functionality - make note during observing surgeries</t>
   </si>
   <si>
@@ -306,14 +308,6 @@
     <t>- goal: learning</t>
   </si>
   <si>
-    <t xml:space="preserve">- show up: lecture on anatomy and the surgery/procedure
-- live surgical demonstration 
-- role of endoscopes for diff't surgeries
-19th: MS skills room - surgeons will be trying the surgeries, and I can walk around and what can be improved upon
-- how do we use this to further research - get informal feedback
--send the surgeons a note that we will be sending a questionaire later </t>
-  </si>
-  <si>
     <t xml:space="preserve">- time flow analysis 
 - see if instruments are used together and if we can combine functionalities, is there too much changing of instruments?
 - after you have new instruments, redo the time flow analysis to see if we have improved
@@ -332,13 +326,6 @@
     <t>cleaning obstructed suction tool</t>
   </si>
   <si>
-    <t>- Survey done by Imperial College (Nandi et al.) for endoscopic neurosurgery: 20 participants until saturation of responses
-1. how experienced with endoscopic neurosurgery
-2. what are major technical barriers? 
-3. what tech advances would improve safety and efficacy in the field
-- outlines how to send out the survey</t>
-  </si>
-  <si>
     <t>workspace analysis</t>
   </si>
   <si>
@@ -349,10 +336,6 @@
     <t>- scan of 7 year old boy available through CIGITI - make into 3D model of ear canal, include the ear drum (may have to overlay)
 - start with feeding in/analyzing a very simple tool eg. One bend and then add more functionalities/mechanisms to the tool and analyze how they will be able to move in the worskpace
 '- need to constrain the movement of tool in the model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- ear trimmers - ordered 
-- </t>
   </si>
   <si>
     <r>
@@ -615,12 +598,31 @@
   <si>
     <t>make a chronology of all instruments talked about and why we abandoned certain ideas</t>
   </si>
+  <si>
+    <t xml:space="preserve">This was a surgical skills course held at SickKids organized by the PI designed to teach practicing otologists about TEES. This course served as a learning experience as I attended the lectures given by experienced TEES otologists describing how and why to use TEES, what specific techniques are used and how to implement TEES in their daily practice. The next day of the course was extermely valuable as I informally discussed the challenges faced by the surgeons taking the course while they practiced TEES in cadavers. They also filled out the initial survey (/Users/arushriswarup/Documents/GitHub/Graduate-School/REB). This helped me form the next version of the survey. 
+ '- show up: lecture on anatomy and the surgery/procedure
+- live surgical demonstration 
+- role of endoscopes for diff't surgeries
+19th: MS skills room - surgeons will be trying the surgeries, and I can walk around and what can be improved upon
+- how do we use this to further research - get informal feedback
+-send the surgeons a note that we will be sending a questionaire later </t>
+  </si>
+  <si>
+    <t>- ear trimmers - ordered 
+- send out new version of survey to course members to ensure it's a good enough survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey development: 1. had informal discussions with Dr. James, Cushing, Papsin, Parkes, Marco, and participants of the course. Asked them about their feelings of TEES and what the technical limitations are, what technological improvements can be made. This helped me develop questions in the preliminary survey /Users/arushriswarup/Documents/GitHub/Graduate-School/REB. Which was circulated in the course. Then feedback helped develop a better survey which will be sent out to surgeons locally, members of the course, board members of IWGEES. This will develop the final survey which will be sent to otologists globally  (approved by REB). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caused us to develop a very detailed protocol, Including the survey, data collection form for the time flow study, how to collect the de-identified CT scans. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1142,29 +1144,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="B19" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="122.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="68.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="122.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.83203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="141.75">
+    <row r="3" spans="2:4" ht="144" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>42348</v>
       </c>
@@ -1186,22 +1188,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="47.25">
+    <row r="4" spans="2:4" ht="48" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="204.75">
+    <row r="5" spans="2:4" ht="208" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="141.75">
+    <row r="6" spans="2:4" ht="144" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="47.25">
+    <row r="7" spans="2:4" ht="48" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1213,30 +1215,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="71.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="41" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="38.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="57.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="74.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="57.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="74.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="50.5" customWidth="1"/>
-    <col min="11" max="11" width="48.125" customWidth="1"/>
+    <col min="11" max="11" width="48.1640625" customWidth="1"/>
     <col min="12" max="12" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="31.5">
+    <row r="1" spans="2:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>26</v>
       </c>
@@ -1245,7 +1247,7 @@
       </c>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>24</v>
       </c>
@@ -1253,7 +1255,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="31.5">
+    <row r="3" spans="2:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -1261,17 +1263,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
@@ -1288,13 +1290,13 @@
         <v>34</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="63">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="48" x14ac:dyDescent="0.2">
       <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1308,16 +1310,16 @@
         <v>31</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="126">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="128" x14ac:dyDescent="0.2">
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1325,16 +1327,16 @@
         <v>6</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="78.75">
+    </row>
+    <row r="9" spans="2:12" ht="80" x14ac:dyDescent="0.2">
       <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1342,16 +1344,16 @@
         <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" s="10" customFormat="1" ht="78.75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="10" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="C10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
@@ -1363,46 +1365,46 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="2:12" s="35" customFormat="1" ht="78.75">
+    <row r="11" spans="2:12" s="35" customFormat="1" ht="154" x14ac:dyDescent="0.15">
       <c r="C11" s="36"/>
       <c r="E11" s="37" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" s="13" customFormat="1" ht="126">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="13" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="C12" s="14"/>
       <c r="E12" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="31.5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="32" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1410,10 +1412,10 @@
         <v>40</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="47.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="48" x14ac:dyDescent="0.2">
       <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1424,7 +1426,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="31.5">
+    <row r="15" spans="2:12" ht="32" x14ac:dyDescent="0.2">
       <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1432,10 +1434,10 @@
         <v>14</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" s="10" customFormat="1" ht="31.5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="C16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11" t="s">
@@ -1445,11 +1447,11 @@
         <v>16</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="3:10" s="10" customFormat="1" ht="63">
+    <row r="18" spans="3:10" s="10" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="C18" s="11"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -1467,10 +1469,10 @@
       </c>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="3:10" s="13" customFormat="1" ht="173.25">
+    <row r="19" spans="3:10" s="13" customFormat="1" ht="192" x14ac:dyDescent="0.2">
       <c r="C19" s="14"/>
       <c r="D19" s="33" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>48</v>
@@ -1479,19 +1481,19 @@
         <v>38</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" s="13" customFormat="1" ht="47.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="C20" s="14"/>
       <c r="E20" s="23" t="s">
         <v>39</v>
@@ -1499,13 +1501,13 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" s="13" customFormat="1" ht="78.75">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" s="13" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="C21" s="14"/>
       <c r="E21" s="17" t="s">
         <v>42</v>
@@ -1513,11 +1515,11 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="3:10" s="10" customFormat="1" ht="31.5">
+    <row r="22" spans="3:10" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="C22" s="11"/>
       <c r="E22" s="16" t="s">
         <v>45</v>
@@ -1527,192 +1529,192 @@
       <c r="H22" s="16"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="3:10" ht="141.75">
+    <row r="23" spans="3:10" ht="144" x14ac:dyDescent="0.2">
       <c r="E23" s="25" t="s">
         <v>38</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" ht="31.5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="32" x14ac:dyDescent="0.2">
       <c r="I24" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="3:10">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I26" s="3"/>
     </row>
-    <row r="30" spans="3:10" s="21" customFormat="1" ht="31.5">
+    <row r="30" spans="3:10" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="C30" s="20"/>
       <c r="E30" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10">
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I31" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I32" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" s="13" customFormat="1" ht="94.5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" s="13" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="C34" s="14"/>
       <c r="D34" s="33" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" s="21" customFormat="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C35" s="20"/>
       <c r="E35" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I36" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E37" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="3:9">
-      <c r="I36" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9">
-      <c r="E37" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="E39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="E40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="1" t="s">
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E42" s="27"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E43" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="3:9" ht="31.5">
-      <c r="E39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="1" t="s">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E44" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E45" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="E46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="G46" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="40" spans="3:9" ht="31.5">
-      <c r="E40" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9">
-      <c r="E42" s="27"/>
-    </row>
-    <row r="43" spans="3:9">
-      <c r="E43" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9">
-      <c r="E44" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9">
-      <c r="E45" s="1" t="s">
+      <c r="I46" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E47" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="E48" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="3:9" ht="31.5">
-      <c r="E46" s="1" t="s">
+    <row r="49" spans="5:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="E49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I46" s="3" t="s">
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="3:9">
-      <c r="E47" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" ht="63">
-      <c r="E48" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9" ht="94.5">
-      <c r="E49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="5:9">
-      <c r="I50" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="5:9" ht="31.5">
+    <row r="51" spans="5:9" ht="32" x14ac:dyDescent="0.2">
       <c r="I51" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="5:9" ht="31.5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" ht="32" x14ac:dyDescent="0.2">
       <c r="E52" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="5:9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E53" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="5:9">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E54" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="5:9" ht="31.5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" ht="32" x14ac:dyDescent="0.2">
       <c r="E55" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1722,113 +1724,113 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.375" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="48.875" customWidth="1"/>
-    <col min="7" max="7" width="59.625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="48.83203125" customWidth="1"/>
+    <col min="7" max="7" width="59.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="28" customFormat="1">
+    <row r="1" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="29"/>
     </row>
-    <row r="2" spans="2:7" s="32" customFormat="1" ht="37.5">
+    <row r="2" spans="2:7" s="32" customFormat="1" ht="38" x14ac:dyDescent="0.25">
       <c r="B2" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="B3" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B4" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B5" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="F5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B6" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="32" t="s">
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="94.5">
-      <c r="B3" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="30" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="47.25">
-      <c r="B4" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="47.25">
-      <c r="B5" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="31" t="s">
+      <c r="C7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="47.25">
-      <c r="B6" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="780" yWindow="6540" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Notes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="149">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -616,6 +616,53 @@
   </si>
   <si>
     <t xml:space="preserve">Caused us to develop a very detailed protocol, Including the survey, data collection form for the time flow study, how to collect the de-identified CT scans. </t>
+  </si>
+  <si>
+    <t>Validation model</t>
+  </si>
+  <si>
+    <t>Validation of model to test instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suckers that are bent by Brandon Isaacson to be used during surgery </t>
+  </si>
+  <si>
+    <t>Brandon Isaacson – send a picture of the curved suckers that he uses, and what he used it for and how well they were able to reach</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validating bone: - measure the length of ear canal and other structures, however it doesn't matter if the ear canal is larger or smaller than the patient because the sizes vary quite a bit, as long as the ear canal meaeurements are in a predetermined range </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Transcanal endoscopic ear surgery for pediatric population with a narrow external auditory canal.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> then the model is validated
+- Measure the lengths of a few structures in each CT scan and then collect them to make a more generic model 
+Validating how much the endoscope can move in the ear canal – this is a function of the pinna, tragus and the amount of soft tissue 
+- Measure the angle that we can manipulate the endoscope – in the OR, existing models and the CT-scan generated models, is there a significant difference in the angles between OR (real) and 3D printed (model)
+- Even though this model is not perfect, its more ethical to practice on the model rather than an anaesthetized patient during their surgery
+- we cannot model the cartilogenous part of the ear (in the pinna because we are not going to validate the material similarity between real and model of the cartilage) but the angle that the endoscope can mode about in the model vs. the child in the OR will be used to characterize this limitation, as well we cannot model the cartilogenous tissue because it can move about while the endoscope is inside the ear canal and we will not be modeling that on the model 
+How many patients do we need and how do we select them? 
+- Power of the experiment
+- Pick based on difficulty of surgery – prospectively from now on, make a note if there was difficulty reaching a certain place and by looking and the residual cholesteatoma (they might have difficult anatomy and we couldn’t reach there)
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -780,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -867,6 +914,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,12 +1266,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L55"/>
+  <dimension ref="B1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1231,7 +1281,7 @@
     <col min="5" max="5" width="41" style="1" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="38.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="57.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="77.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="74.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="50.5" customWidth="1"/>
     <col min="11" max="11" width="48.1640625" customWidth="1"/>
@@ -1372,349 +1422,374 @@
       </c>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="2:12" s="35" customFormat="1" ht="154" x14ac:dyDescent="0.15">
-      <c r="C11" s="36"/>
-      <c r="E11" s="37" t="s">
+    <row r="11" spans="2:12" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="2:12" s="35" customFormat="1" ht="154" x14ac:dyDescent="0.15">
+      <c r="C12" s="36"/>
+      <c r="E12" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="38" t="s">
+      <c r="F12" s="36"/>
+      <c r="G12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H12" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I12" s="38" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="2:12" s="13" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="C12" s="14"/>
-      <c r="E12" s="23" t="s">
+    <row r="13" spans="2:12" s="13" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="C13" s="14"/>
+      <c r="E13" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I13" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="E13" s="1" t="s">
+    <row r="14" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="F14" s="1" t="s">
+    <row r="15" spans="2:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="F15" s="1" t="s">
+    <row r="16" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:12" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="C16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
+    <row r="17" spans="3:10" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="E17" s="1" t="s">
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="3:10" s="10" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="C18" s="11"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16" t="s">
+    <row r="19" spans="3:10" s="10" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="C19" s="11"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="3:10" s="13" customFormat="1" ht="192" x14ac:dyDescent="0.2">
-      <c r="C19" s="14"/>
-      <c r="D19" s="33" t="s">
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="3:10" s="13" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="C20" s="14"/>
+      <c r="D20" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E20" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G20" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I20" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J20" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="3:10" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="C20" s="14"/>
-      <c r="E20" s="23" t="s">
+    <row r="21" spans="3:10" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C21" s="14"/>
+      <c r="E21" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I21" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="3:10" s="13" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="C21" s="14"/>
-      <c r="E21" s="17" t="s">
+    <row r="22" spans="3:10" s="13" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="C22" s="14"/>
+      <c r="E22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="3:10" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="C22" s="11"/>
-      <c r="E22" s="16" t="s">
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="3:10" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C23" s="11"/>
+      <c r="E23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="3:10" ht="144" x14ac:dyDescent="0.2">
-      <c r="E23" s="25" t="s">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="3:10" ht="144" x14ac:dyDescent="0.2">
+      <c r="E24" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H24" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="3:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="I24" s="3" t="s">
+    <row r="25" spans="3:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="I25" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I26" s="3"/>
     </row>
-    <row r="30" spans="3:10" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="C30" s="20"/>
-      <c r="E30" s="26" t="s">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I27" s="3"/>
+    </row>
+    <row r="31" spans="3:10" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C31" s="20"/>
+      <c r="E31" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20" t="s">
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I31" s="22" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I31" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I32" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="3:9" s="13" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="C34" s="14"/>
-      <c r="D34" s="33" t="s">
+    <row r="35" spans="3:9" s="13" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="C35" s="14"/>
+      <c r="D35" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E35" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15" t="s">
+      <c r="F35" s="14"/>
+      <c r="G35" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H35" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I35" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="3:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="20"/>
-      <c r="E35" s="20" t="s">
+    <row r="36" spans="3:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="20"/>
+      <c r="E36" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="22" t="s">
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="I36" s="3" t="s">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E37" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="E39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="3:9" ht="32" x14ac:dyDescent="0.2">
       <c r="E40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="E41" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E42" s="27"/>
-    </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E43" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E45" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E46" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="3:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="E46" s="1" t="s">
+    <row r="47" spans="3:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="E47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E47" s="1" t="s">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E48" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="3:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="E48" s="1" t="s">
+    <row r="49" spans="5:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="E49" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="5:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="E49" s="1" t="s">
+    <row r="50" spans="5:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="E50" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="3" t="s">
+    <row r="51" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="5:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="I51" s="3" t="s">
+    <row r="52" spans="5:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="I52" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="5:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="E52" s="1" t="s">
+    <row r="53" spans="5:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="E53" s="1" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E53" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E54" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E55" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="5:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="E55" s="1" t="s">
+    <row r="56" spans="5:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="E56" s="1" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" ht="409" x14ac:dyDescent="0.2">
+      <c r="E57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="6540" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1120" windowWidth="28800" windowHeight="16480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Notes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -34,9 +34,6 @@
     <t>Meeting Notes:</t>
   </si>
   <si>
-    <t xml:space="preserve">Goal: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Criteria: </t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>Include endoscope: 30 deg, 45 deg</t>
   </si>
   <si>
-    <t>Ensure that the instrument fits inside ear canal along with endocscope</t>
-  </si>
-  <si>
     <t>Size</t>
   </si>
   <si>
@@ -68,15 +62,6 @@
   </si>
   <si>
     <t>fits in ear canal with endoscope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tip angles allow access to areas in the middle ear </t>
-  </si>
-  <si>
-    <t>Grip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use suction </t>
   </si>
   <si>
     <r>
@@ -178,19 +163,7 @@
     <t>Design Objectives</t>
   </si>
   <si>
-    <t>Design Criteria</t>
-  </si>
-  <si>
     <t>Research Question</t>
-  </si>
-  <si>
-    <t>How to reduce time spent in the OR for EES? First, figure out why by conducting process study and asking the field about limitations.</t>
-  </si>
-  <si>
-    <t>Make surgery easier for surgeons. Design tools to facilitate one-handed surgery.</t>
-  </si>
-  <si>
-    <t>Size, grip, accessibility, ease of use, manufacturability, cost, geometry, functionality, sterilizability</t>
   </si>
   <si>
     <t xml:space="preserve">Description: </t>
@@ -200,9 +173,6 @@
 - Want to make 3D printed models too, to physically test instruments</t>
   </si>
   <si>
-    <t>Make a platform to integrate 3D model of ear (by using CT scans) and instruments to test instrument functionality</t>
-  </si>
-  <si>
     <t>Graft Placement</t>
   </si>
   <si>
@@ -216,58 +186,25 @@
 graft will be cut like a cardboard box cut-out</t>
   </si>
   <si>
-    <t>General Instrument Design for One-Handed Endoscopic Ear Surgery</t>
-  </si>
-  <si>
     <t>REB approval</t>
   </si>
   <si>
     <t xml:space="preserve">Reduce noise of suction pedal </t>
   </si>
   <si>
-    <t>use notched tubes to increase articulation/accessibility of working end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- use a trocar that can stabilize the tool so you can use the wrist to articulate instead of thumb '-&gt; thumb will take a lot of force to articulate the business end </t>
-  </si>
-  <si>
     <t>quantify the amount of force imparted by the business end</t>
   </si>
   <si>
-    <t xml:space="preserve">needs assessment -&gt; anatomy, forces required, max forces, workspace analysis - surface area, volume, how many degrees of freedom/range of motion -&gt; </t>
-  </si>
-  <si>
-    <t>- what do you really need each degree of freedom for? Ensure you have the optimal number of degrees of freedom</t>
-  </si>
-  <si>
-    <t>Workshop - 2nd World Congress on Endoscopic Ear Surgery (April, 2017)</t>
-  </si>
-  <si>
     <t>Teaching workshop in October  18-19 prep</t>
   </si>
   <si>
-    <t>research - viewing surgeries</t>
-  </si>
-  <si>
-    <t>3. NEEDS ANALYSIS - Survey to narrow down design criteria, requirements, constraints for instrument design</t>
-  </si>
-  <si>
     <t>- Dr. James to note which ears are difficult to access and make models of those to test instrument accessibility/functionality - make note during observing surgeries</t>
   </si>
   <si>
     <t>- determine which types of ear models to print based on needs analysis</t>
   </si>
   <si>
-    <t>- for research: look at medical device conference papers and surgical tool manuals by companies (eg. Karl Storz catalogue, ASME conference proceedings, instrumentarium company)</t>
-  </si>
-  <si>
     <t>Ear hair trimmer</t>
-  </si>
-  <si>
-    <t>- flexible suckers</t>
-  </si>
-  <si>
-    <t>-combine electro-cautery with suction, insulated cautery devices for ear</t>
   </si>
   <si>
     <t>- quantify how much force is allowed in the ear canal, so tissue is not damaged
@@ -277,12 +214,6 @@
     <t>Actions</t>
   </si>
   <si>
-    <t xml:space="preserve">surgical skills course October 18 - ask surgeons about their experience a few months after undergoing the course, this survey will include REB consent form
-- grind ear hair trimmers
-- have a meeting with doctors to chat about the challenges informally regarding technique, instruments and how to make uinstruments better -&gt; find themes that generate quesstions and email these to doctors around the world 
-</t>
-  </si>
-  <si>
     <t>-try to make it silent, so that it doesn't suck in just air 
 - right now when it is disengaged, it is still sucking in air which is noisy</t>
   </si>
@@ -290,17 +221,6 @@
     <t>give these out as a present to the visiting international surgeons and can ask them if they are using them and if they are useful</t>
   </si>
   <si>
-    <t xml:space="preserve">- make some more (5-6), engraved with 'university of toronto' </t>
-  </si>
-  <si>
-    <t>- do the online tutorial (see email, it is on the REB website) - http://www.sickkids.ca/Research/REB/Training/index.html</t>
-  </si>
-  <si>
-    <t>- see Dr. Papsin and Dr. Cushing's surgeries as well - can see what the different stages of experience are
-- course and surgeries will give an idea of the challenges
-- goal: characterize the inefficiencies and time each step of the surgery and see how we can move things faster</t>
-  </si>
-  <si>
     <t>- search  the suction pedals used online, Hough suction used right now 
 - how does the suction pedal work? what is the plumbing?</t>
   </si>
@@ -308,29 +228,7 @@
     <t>- goal: learning</t>
   </si>
   <si>
-    <t xml:space="preserve">- time flow analysis 
-- see if instruments are used together and if we can combine functionalities, is there too much changing of instruments?
-- after you have new instruments, redo the time flow analysis to see if we have improved
-</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- anatomy </t>
-  </si>
-  <si>
-    <t>- look at instrument catalogues</t>
-  </si>
-  <si>
     <t>cleaning obstructed suction tool</t>
-  </si>
-  <si>
-    <t>workspace analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-determine the workspace that is available to use tools in 
-- what are the obstacles? </t>
   </si>
   <si>
     <t>- scan of 7 year old boy available through CIGITI - make into 3D model of ear canal, include the ear drum (may have to overlay)
@@ -338,46 +236,6 @@
 '- need to constrain the movement of tool in the model</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">- remind Dr. James to share his surgery calendar when I get my badge/login
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>- lliterature search for time flow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- note which ears are hard to gain access of instruments</t>
-    </r>
-  </si>
-  <si>
-    <t>time flow and questionaire</t>
-  </si>
-  <si>
-    <t>validation of instruments</t>
-  </si>
-  <si>
-    <t>in OR and in 3D printed model</t>
-  </si>
-  <si>
-    <t>- record time and number of changes to scissors</t>
-  </si>
-  <si>
-    <t>choosing committee</t>
-  </si>
-  <si>
     <t>materials science and force required to choose the size of the tubing if using concentric tubes</t>
   </si>
   <si>
@@ -393,21 +251,12 @@
     <t>- check about these requirements</t>
   </si>
   <si>
-    <t xml:space="preserve"> - survey method: go on RedCap (formal SickKids survey/questionaire method) and formulate and send out the questionaire, use delphi method to figure out the criteria (time consuming) - requires many rounds of survey and group converges to the 'right' answer - this will take a long time but will have time to do, well defined method, more likelyhood of publication, audience will accept this method
-- nominal group method: quicker way to make the decision - many surgeons meet and vote/rank solutions in one meeting - could use this to figure out what questions to ask
-- quality function deployment - use matrices how well the design satisfies user's needs (look this up) - Jan has done this before, used in rehab engineering, can be used to design the questionaire and time flow study 
-- 6 months</t>
-  </si>
-  <si>
     <t>structure of thesis?</t>
   </si>
   <si>
     <t xml:space="preserve">isolate ear drum from CT scan </t>
   </si>
   <si>
-    <t xml:space="preserve">print a model of the whole ear canal, scaled up 5X </t>
-  </si>
-  <si>
     <t>how much to bend laser before fibres break</t>
   </si>
   <si>
@@ -436,10 +285,6 @@
   </si>
   <si>
     <t>workspace analysis to determine the size of the instruments</t>
-  </si>
-  <si>
-    <t>- need CT scan
-- can 3D model be used for a class?</t>
   </si>
   <si>
     <t>- how to develop using RedCap
@@ -454,12 +299,6 @@
     <t>- feeding CT scan into program that can determine curvature and length of tool required to reach specific targets (available in the lab)
 - need to define how many degrees of freedom (roll, pitch, yaw) we can have vs. how many we need (as determined by the analysis)
 - calculate the appropriate diameter of nitinol tubes based on required force and flexion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- open CT scan and ensure can't see a name on it </t>
-  </si>
-  <si>
-    <t>- look up delphi method use (library and papers) and use of delphi method to analyse survey results</t>
   </si>
   <si>
     <t>- testing tool inside a 3D printed model
@@ -468,9 +307,6 @@
 - do we need to simulate soft tissues?</t>
   </si>
   <si>
-    <t>rhino for developing the shape of the tool to help define unusual geometries</t>
-  </si>
-  <si>
     <t>Tool Design Element</t>
   </si>
   <si>
@@ -558,12 +394,6 @@
     <t>- crop 3D model so it just has the triangular part after the ear canal
 - add endoscope
 - set up experiment where electromagnetic electrode is on the end of a tool and can be tracked inside a 3D model</t>
-  </si>
-  <si>
-    <t>publish--&gt;</t>
-  </si>
-  <si>
-    <t>Publish--&gt;</t>
   </si>
   <si>
     <r>
@@ -587,9 +417,6 @@
     <t>order tools from Panetti -&gt; bend them in the appropriate angles as a result of the workspace study</t>
   </si>
   <si>
-    <t xml:space="preserve">- shave down the edges </t>
-  </si>
-  <si>
     <t>SGS conference grant</t>
   </si>
   <si>
@@ -610,15 +437,6 @@
   <si>
     <t>- ear trimmers - ordered 
 - send out new version of survey to course members to ensure it's a good enough survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey development: 1. had informal discussions with Dr. James, Cushing, Papsin, Parkes, Marco, and participants of the course. Asked them about their feelings of TEES and what the technical limitations are, what technological improvements can be made. This helped me develop questions in the preliminary survey /Users/arushriswarup/Documents/GitHub/Graduate-School/REB. Which was circulated in the course. Then feedback helped develop a better survey which will be sent out to surgeons locally, members of the course, board members of IWGEES. This will develop the final survey which will be sent to otologists globally  (approved by REB). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caused us to develop a very detailed protocol, Including the survey, data collection form for the time flow study, how to collect the de-identified CT scans. </t>
-  </si>
-  <si>
-    <t>Validation model</t>
   </si>
   <si>
     <t>Validation of model to test instruments</t>
@@ -664,12 +482,201 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Hamlyn Symposium--&gt;</t>
+  </si>
+  <si>
+    <t>IWGEES Conference--&gt;</t>
+  </si>
+  <si>
+    <t>How can we improve the adoption of transcanal endoscopic ear surgery technique. In order to facilitate this, the research questions are: what are the limitations of TEES? What functions of tools can be developed to improve the rate of TEES adoption by ENT surgeons?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) Needs analysis to understand the reasons why ENTs don't use TEES and what instrument functionalities are desired? B) Time flow study to measure the efficiency of the current tools in TEES. c) Workspace analysis to understand the design space inside the ear to optimize the geometry of the body and function of the tip of a new instrument in order to reach certain areas (e.g. antrum, sinus tympani). d) validate the new tools in 3D printed ear models and cadaver - need to make a physical model of the ear, measure how realistic the model is by measuring angular range the endoscope can move when insterted in ear canal and measure the length of time to successfully reach an area inside the anatomy compared to existing tools.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- for research: look at medical device conference papers and surgical tool manuals by companies (eg. Karl Storz catalogue, ASME conference proceedings, instrumentarium company)
+needs assessment -&gt; anatomy, forces required, max forces, workspace analysis - surface area, volume, how many degrees of freedom/range of motion -&gt; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'- what do you really need each degree of freedom for? Ensure you have the optimal number of degrees of freedom</t>
+    </r>
+  </si>
+  <si>
+    <t>Objective:</t>
+  </si>
+  <si>
+    <t>A. Needs Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surgical skills course October 18 - ask surgeons about their experience a few months after undergoing the course, this survey will include REB consent form
+- grind ear hair trimmers
+- have a meeting with doctors to chat about the challenges informally regarding technique, instruments and how to make uinstruments better -&gt; find themes that generate quesstions and email these to doctors around the world 
+'Survey development: 1. had informal discussions with Dr. James, Cushing, Papsin, Parkes, Marco, and participants of the course. Asked them about their feelings of TEES and what the technical limitations are, what technological improvements can be made. This helped me develop questions in the preliminary survey /Users/arushriswarup/Documents/GitHub/Graduate-School/REB. Which was circulated in the course. Then feedback helped develop a better survey which will be sent out to surgeons locally, members of the course, board members of IWGEES. This will develop the final survey which will be sent to otologists globally  (approved by REB). 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - survey method: go on RedCap (formal SickKids survey/questionaire method) and formulate and send out the questionaire, use delphi method to figure out the criteria (time consuming) - requires many rounds of survey and group converges to the 'right' answer - this will take a long time but will have time to do, well defined method, more likelyhood of publication, audience will accept this method
+- quality function deployment - use matrices how well the design satisfies user's needs (look this up) - Jan has done this before, used in rehab engineering, can be used to design the questionaire and time flow study 
+- 6 months</t>
+  </si>
+  <si>
+    <t>B. Time Flow Study</t>
+  </si>
+  <si>
+    <t>- note which ears are hard to gain access of instruments</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>tep 1: REB Approval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for Time Flow Analysis and Questionnaire - protocol, consent forms, data collection table, survey
+Step 2a: Send out survey, analyze responses, develop 2ary questionnaire, send out survey again, analyse reponses and publish 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Step 1: REB Approval (see above)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Step 2b: Time surgeries and analyze differences in step times between surgeons and if they're using difference tools
+- see if instruments are used together and if we can combine functionalities, is there too much changing of instruments?
+- after you have new instruments, redo the time flow analysis to see if we have improved</t>
+    </r>
+  </si>
+  <si>
+    <t>- see Dr. Papsin and Dr. Cushing's surgeries as well - can see what the different stages of experience are
+- Dr. Pothier's surgeries are recorded so can time those 
+- course and surgeries will give an idea of the challenges
+- goal: characterize the inefficiencies and time each step of the surgery and see how we can move things faster</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">- do the online tutorial </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(see email, it is on the REB website) - http://www.sickkids.ca/Research/REB/Training/index.html
+Caused us to develop a very detailed protocol, Including the survey, data collection form for the time flow study, how to collect the de-identified CT scans. </t>
+    </r>
+  </si>
+  <si>
+    <t>C. Workspace Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make a platform to integrate 3D model of ear (by using CT scans) and instruments to test instrument functionality
+'-determine the workspace that is available to use tools in 
+- what are the obstacles? </t>
+  </si>
+  <si>
+    <t>- how much force is required at the tip? - as per course feedback, want a stiffer suction rather than flexible/bendy
+- how much force is required to actuate the tip bending? - thumb wheel actuation - ensure that enough friction to maintain current tip configuration but also not too high as to make it difficult to actuate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Tool Requirements </t>
+  </si>
+  <si>
+    <t>Blood management</t>
+  </si>
+  <si>
+    <t>Use suction or electro-cautery</t>
+  </si>
+  <si>
+    <t>-combine electro-cautery (bipolar) with suction, insulated cautery devices for ear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- make some more (5-6), engraved with 'university of toronto' 
+-  record time and number of changes to scissors
+- shave down the edges </t>
+  </si>
+  <si>
+    <t>Committee</t>
+  </si>
+  <si>
+    <t>apply in March for reimbursement - IWGEES, Hamlyn Symposium</t>
+  </si>
+  <si>
+    <t>D. Validation model</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -732,8 +739,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,12 +787,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA58BFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,6 +805,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -840,12 +896,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -869,9 +923,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -879,44 +930,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="144" x14ac:dyDescent="0.2">
@@ -1232,30 +1316,30 @@
         <v>42348</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="48" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="208" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="144" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="48" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1266,20 +1350,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L57"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="94.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="66" style="1" customWidth="1"/>
     <col min="7" max="7" width="38.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="77.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="74.83203125" style="1" customWidth="1"/>
@@ -1288,511 +1373,441 @@
     <col min="12" max="12" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="11" customFormat="1" ht="193" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" s="11" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="B5" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="11" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="44"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="44"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="44"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="44"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="45"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" s="30" customFormat="1" ht="113" x14ac:dyDescent="0.3">
+      <c r="B13" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="2:6" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C18" s="20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="11" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="C19" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
+      <c r="D19" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="2:6" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="C20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="B21" s="17"/>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+      <c r="D26" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="B29" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="23"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="369" x14ac:dyDescent="0.25">
+      <c r="B37" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="7"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="208" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="128" x14ac:dyDescent="0.2">
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" s="10" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="C10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="2:12" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="C11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="2:12" s="35" customFormat="1" ht="154" x14ac:dyDescent="0.15">
-      <c r="C12" s="36"/>
-      <c r="E12" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" s="13" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="C13" s="14"/>
-      <c r="E13" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15" t="s">
+      <c r="C42" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B43" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="F15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="F16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="C17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="E18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" s="10" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="C19" s="11"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="3:10" s="13" customFormat="1" ht="192" x14ac:dyDescent="0.2">
-      <c r="C20" s="14"/>
-      <c r="D20" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="C21" s="14"/>
-      <c r="E21" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" s="13" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="C22" s="14"/>
-      <c r="E22" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="3:10" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="C23" s="11"/>
-      <c r="E23" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="3:10" ht="144" x14ac:dyDescent="0.2">
-      <c r="E24" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="I25" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I27" s="3"/>
-    </row>
-    <row r="31" spans="3:10" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="C31" s="20"/>
-      <c r="E31" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="I32" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="I33" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" s="13" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="C35" s="14"/>
-      <c r="D35" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="20"/>
-      <c r="E36" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="I37" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E38" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="E40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="E41" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E43" s="27"/>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E44" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E45" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E46" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="E47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E48" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="E49" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="5:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="E50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="5:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="I52" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="5:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="E53" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E54" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E55" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="5:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="E56" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="5:9" ht="409" x14ac:dyDescent="0.2">
-      <c r="E57" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>148</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A7:A12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1808,104 +1823,104 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="48.83203125" customWidth="1"/>
     <col min="7" max="7" width="59.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="29"/>
-    </row>
-    <row r="2" spans="2:7" s="32" customFormat="1" ht="38" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>121</v>
+    <row r="1" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="25"/>
+    </row>
+    <row r="2" spans="2:7" s="28" customFormat="1" ht="38" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
-        <v>109</v>
+      <c r="B3" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
-        <v>110</v>
+      <c r="B4" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>118</v>
+        <v>74</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
-        <v>108</v>
+      <c r="B5" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>124</v>
+        <v>80</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B6" s="30" t="s">
-        <v>116</v>
+      <c r="B6" s="26" t="s">
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
-        <v>126</v>
+      <c r="B7" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>130</v>
+        <v>86</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1120" windowWidth="28800" windowHeight="16480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Notes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -421,9 +421,6 @@
   </si>
   <si>
     <t>forceps in the shape of Rosen needle</t>
-  </si>
-  <si>
-    <t>make a chronology of all instruments talked about and why we abandoned certain ideas</t>
   </si>
   <si>
     <t xml:space="preserve">This was a surgical skills course held at SickKids organized by the PI designed to teach practicing otologists about TEES. This course served as a learning experience as I attended the lectures given by experienced TEES otologists describing how and why to use TEES, what specific techniques are used and how to implement TEES in their daily practice. The next day of the course was extermely valuable as I informally discussed the challenges faced by the surgeons taking the course while they practiced TEES in cadavers. They also filled out the initial survey (/Users/arushriswarup/Documents/GitHub/Graduate-School/REB). This helped me form the next version of the survey. 
@@ -1353,9 +1350,9 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1378,7 +1375,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
@@ -1389,17 +1386,17 @@
         <v>19</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
       <c r="F2" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1416,36 +1413,36 @@
     </row>
     <row r="4" spans="1:12" s="11" customFormat="1" ht="193" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>107</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>108</v>
       </c>
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:12" s="11" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="B5" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>113</v>
-      </c>
       <c r="F5" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="112" x14ac:dyDescent="0.2">
@@ -1457,19 +1454,19 @@
         <v>89</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="11" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>41</v>
@@ -1540,10 +1537,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>97</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>98</v>
       </c>
       <c r="F12" s="9"/>
       <c r="K12" s="10"/>
@@ -1558,15 +1555,15 @@
         <v>39</v>
       </c>
       <c r="E13" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>94</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -1579,13 +1576,13 @@
     <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -1624,7 +1621,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>34</v>
@@ -1640,7 +1637,7 @@
         <v>37</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:6" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -1680,29 +1677,26 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>93</v>
-      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="2:6" ht="33" x14ac:dyDescent="0.25">
       <c r="B29" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>45</v>
@@ -1745,18 +1739,18 @@
         <v>91</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="369" x14ac:dyDescent="0.25">
       <c r="B37" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Notes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -661,19 +661,22 @@
   <si>
     <t>D. Validation model</t>
   </si>
+  <si>
+    <t>IWGEES</t>
+  </si>
+  <si>
+    <t>- at least first round of survey results
+- some timed surgery data, including if the trimmed ear hair trimmer is faster than the scissors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foot pedal </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -893,8 +896,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -940,64 +943,64 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1347,12 +1350,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1374,22 +1377,22 @@
       <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="34" t="s">
         <v>103</v>
       </c>
@@ -1412,10 +1415,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="11" customFormat="1" ht="193" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>105</v>
       </c>
       <c r="C4" s="12"/>
@@ -1425,13 +1428,13 @@
       <c r="E4" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>107</v>
       </c>
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:12" s="11" customFormat="1" ht="144" x14ac:dyDescent="0.2">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>108</v>
       </c>
       <c r="C5" s="12"/>
@@ -1458,10 +1461,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="11" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>114</v>
       </c>
       <c r="C7" s="12"/>
@@ -1476,8 +1479,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1490,8 +1493,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1503,8 +1506,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1516,8 +1519,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
@@ -1531,8 +1534,8 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="9" t="s">
         <v>3</v>
       </c>
@@ -1547,7 +1550,7 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" s="30" customFormat="1" ht="113" x14ac:dyDescent="0.3">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="31"/>
@@ -1695,7 +1698,7 @@
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="2:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="39" t="s">
         <v>122</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1743,7 +1746,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="369" x14ac:dyDescent="0.25">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="40" t="s">
         <v>124</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1787,12 +1790,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" ht="160" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Graduate-School/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16335" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Notes" sheetId="1" r:id="rId1"/>
@@ -221,19 +216,10 @@
     <t>give these out as a present to the visiting international surgeons and can ask them if they are using them and if they are useful</t>
   </si>
   <si>
-    <t>- search  the suction pedals used online, Hough suction used right now 
-- how does the suction pedal work? what is the plumbing?</t>
-  </si>
-  <si>
     <t>- goal: learning</t>
   </si>
   <si>
     <t>cleaning obstructed suction tool</t>
-  </si>
-  <si>
-    <t>- scan of 7 year old boy available through CIGITI - make into 3D model of ear canal, include the ear drum (may have to overlay)
-- start with feeding in/analyzing a very simple tool eg. One bend and then add more functionalities/mechanisms to the tool and analyze how they will be able to move in the worskpace
-'- need to constrain the movement of tool in the model</t>
   </si>
   <si>
     <t>materials science and force required to choose the size of the tubing if using concentric tubes</t>
@@ -671,12 +657,45 @@
   <si>
     <t xml:space="preserve">foot pedal </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- search  the suction pedals used online, Hough suction used right now </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- how does the suction pedal work? what is the plumbing?
+- using stopcocks and other tubing supplies, make a prototype to dampen the noise the air makes when rushing into the out tube when suction is released (see notebook for diagram)</t>
+    </r>
+  </si>
+  <si>
+    <t>- scan of 7 year old boy available through CIGITI -&gt; make into STL using mimics, include the ear drum(?) (may have to overlay)
+- 3D print using powder printer -&gt; show Dr. James to ensure the print is accurate/if thresholds should be modified/edited
+- virtual model: orient triangles so all normal vectors pointing in one direction -&gt; import into solidworks (or magics, geomagic, etc.) -&gt; add endoscope + simple tool -&gt; ask Dr. James to highlight certain areas that need to be accessed (e.g. sinus tympani, antrum) -&gt;  play around with splines to find optimal curvature to reach specific areas
+- start with feeding in/analyzing a very simple tool eg. One bend and then add more functionalities/mechanisms to the tool and analyze how they will be able to move in the worskpace
+- need to constrain the movement of tool in the model
+- orientation of the tip -&gt; electromagnetic sensor (NDI) on the tool tip + 3D model with a block (for registration of the tool with sensor in order to provide a reference for the map) + Dr. James -&gt; map the angular orientation of the tip to determine the angular ranges that the tip needs to go (e.g. +/- 30 deg? 60deg? 90deg?)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1278,29 +1297,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="B19" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="122.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="68.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="122.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="144" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" ht="141.75">
       <c r="B3" s="2">
         <v>42348</v>
       </c>
@@ -1322,22 +1341,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" ht="47.25">
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="208" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="204.75">
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="144" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" ht="141.75">
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="47.25">
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1349,57 +1368,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="94.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="94.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="66" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="77.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="74.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="74.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="50.5" customWidth="1"/>
-    <col min="11" max="11" width="48.1640625" customWidth="1"/>
+    <col min="11" max="11" width="48.125" customWidth="1"/>
     <col min="12" max="12" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="44.1" customHeight="1">
       <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:12" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="81.95" customHeight="1">
       <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
       <c r="F2" s="34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1414,71 +1433,71 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="11" customFormat="1" ht="193" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="11" customFormat="1" ht="222">
       <c r="A4" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" s="11" customFormat="1" ht="141.75">
+      <c r="B5" s="35" t="s">
         <v>106</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" s="11" customFormat="1" ht="144" x14ac:dyDescent="0.2">
-      <c r="B5" s="35" t="s">
-        <v>108</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="110.25">
       <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="11" customFormat="1" ht="220.5">
       <c r="A7" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="33" customHeight="1">
       <c r="A8" s="46"/>
       <c r="B8" s="43"/>
       <c r="C8" s="1" t="s">
@@ -1489,10 +1508,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="33" customHeight="1">
       <c r="A9" s="46"/>
       <c r="B9" s="43"/>
       <c r="C9" s="1" t="s">
@@ -1505,7 +1524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="33" customHeight="1">
       <c r="A10" s="46"/>
       <c r="B10" s="43"/>
       <c r="C10" s="1" t="s">
@@ -1518,7 +1537,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A11" s="46"/>
       <c r="B11" s="43"/>
       <c r="C11" s="9" t="s">
@@ -1528,45 +1547,45 @@
         <v>10</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A12" s="47"/>
       <c r="B12" s="44"/>
       <c r="C12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F12" s="9"/>
       <c r="K12" s="10"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" s="30" customFormat="1" ht="113" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="30" customFormat="1" ht="126.75">
       <c r="B13" s="38" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="B14" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -1576,20 +1595,20 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="8" customFormat="1">
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1598,7 +1617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:6" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" s="8" customFormat="1" ht="47.25">
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -1607,7 +1626,7 @@
       </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="2:6" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" s="11" customFormat="1" ht="78.75">
       <c r="C18" s="20" t="s">
         <v>28</v>
       </c>
@@ -1616,22 +1635,22 @@
         <v>36</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" s="11" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="11" customFormat="1" ht="126">
       <c r="C19" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="2:6" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" s="18" customFormat="1" ht="47.25">
       <c r="C20" s="22" t="s">
         <v>33</v>
       </c>
@@ -1640,175 +1659,175 @@
         <v>37</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" s="18" customFormat="1" ht="63">
       <c r="B21" s="17"/>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6">
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="31.5">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="94.5">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" ht="47.25">
+      <c r="D26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="D26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:6">
       <c r="D27" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="33">
       <c r="B29" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6">
       <c r="B31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6">
       <c r="B32" s="23"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5">
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" ht="31.5">
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5">
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" ht="31.5">
       <c r="B36" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="369" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="284.25">
       <c r="B37" s="40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5">
       <c r="B39" s="7"/>
       <c r="C39"/>
     </row>
-    <row r="40" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" ht="63">
       <c r="B40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="204.75">
+      <c r="B41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="126">
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="157.5">
+      <c r="B43" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="208" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="160" x14ac:dyDescent="0.2">
-      <c r="B43" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" ht="94.5">
       <c r="B45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1824,113 +1843,113 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="48.83203125" customWidth="1"/>
-    <col min="7" max="7" width="59.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="48.875" customWidth="1"/>
+    <col min="7" max="7" width="59.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" s="24" customFormat="1">
       <c r="B1" s="25"/>
     </row>
-    <row r="2" spans="2:7" s="28" customFormat="1" ht="38" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" s="28" customFormat="1" ht="37.5">
       <c r="B2" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="94.5">
+      <c r="B3" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="47.25">
+      <c r="B4" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="47.25">
+      <c r="B5" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="47.25">
+      <c r="B6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="26" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B6" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="G7" s="27" t="s">
         <v>85</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -683,19 +683,32 @@
     </r>
   </si>
   <si>
-    <t>- scan of 7 year old boy available through CIGITI -&gt; make into STL using mimics, include the ear drum(?) (may have to overlay)
+    <r>
+      <t xml:space="preserve">- scan of 7 year old boy available through CIGITI -&gt; make into STL using mimics, include the ear drum(?) (may have to overlay)
 - 3D print using powder printer -&gt; show Dr. James to ensure the print is accurate/if thresholds should be modified/edited
 - virtual model: orient triangles so all normal vectors pointing in one direction -&gt; import into solidworks (or magics, geomagic, etc.) -&gt; add endoscope + simple tool -&gt; ask Dr. James to highlight certain areas that need to be accessed (e.g. sinus tympani, antrum) -&gt;  play around with splines to find optimal curvature to reach specific areas
 - start with feeding in/analyzing a very simple tool eg. One bend and then add more functionalities/mechanisms to the tool and analyze how they will be able to move in the worskpace
 - need to constrain the movement of tool in the model
-- orientation of the tip -&gt; electromagnetic sensor (NDI) on the tool tip + 3D model with a block (for registration of the tool with sensor in order to provide a reference for the map) + Dr. James -&gt; map the angular orientation of the tip to determine the angular ranges that the tip needs to go (e.g. +/- 30 deg? 60deg? 90deg?)</t>
+- orientation of the tip -&gt; electromagnetic sensor (NDI) on the tool tip + 3D model with a block (for registration of the tool with sensor in order to provide a reference for the map) + Dr. James -&gt; map the angular orientation of the tip to determine the angular ranges that the tip needs to go (e.g. +/- 30 deg? 60deg? 90deg?) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; this will dictate the design of the tip. if wrist - will dictate the optimal curvature, arc length required and how many notches/size of the notches; concentric tubes - curvature of the tube and arc length</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -791,6 +804,13 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1297,7 +1317,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1372,9 +1392,9 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1479,7 +1499,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" ht="220.5">
+    <row r="7" spans="1:12" s="11" customFormat="1" ht="236.25">
       <c r="A7" s="45" t="s">
         <v>97</v>
       </c>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -501,18 +501,6 @@
     <t>A. Needs Analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">surgical skills course October 18 - ask surgeons about their experience a few months after undergoing the course, this survey will include REB consent form
-- grind ear hair trimmers
-- have a meeting with doctors to chat about the challenges informally regarding technique, instruments and how to make uinstruments better -&gt; find themes that generate quesstions and email these to doctors around the world 
-'Survey development: 1. had informal discussions with Dr. James, Cushing, Papsin, Parkes, Marco, and participants of the course. Asked them about their feelings of TEES and what the technical limitations are, what technological improvements can be made. This helped me develop questions in the preliminary survey /Users/arushriswarup/Documents/GitHub/Graduate-School/REB. Which was circulated in the course. Then feedback helped develop a better survey which will be sent out to surgeons locally, members of the course, board members of IWGEES. This will develop the final survey which will be sent to otologists globally  (approved by REB). 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - survey method: go on RedCap (formal SickKids survey/questionaire method) and formulate and send out the questionaire, use delphi method to figure out the criteria (time consuming) - requires many rounds of survey and group converges to the 'right' answer - this will take a long time but will have time to do, well defined method, more likelyhood of publication, audience will accept this method
-- quality function deployment - use matrices how well the design satisfies user's needs (look this up) - Jan has done this before, used in rehab engineering, can be used to design the questionaire and time flow study 
-- 6 months</t>
-  </si>
-  <si>
     <t>B. Time Flow Study</t>
   </si>
   <si>
@@ -701,6 +689,105 @@
         <scheme val="minor"/>
       </rPr>
       <t>-&gt; this will dictate the design of the tip. if wrist - will dictate the optimal curvature, arc length required and how many notches/size of the notches; concentric tubes - curvature of the tube and arc length</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - survey method: go on RedCap (formal SickKids survey/questionaire method) and formulate and send out the questionaire, use delphi method to figure out the criteria (time consuming) - requires many rounds of survey and group converges to the 'right' answer - this will take a long time but will have time to do, well defined method, more likelyhood of publication, audience will accept this method
+- quality function deployment - use matrices how well the design satisfies user's needs (look this up) - Jan has done this before, used in rehab engineering, can be used to design the questionaire and time flow study 
+- 6 months
+surgical skills course October 18 - ask surgeons about their experience a few months after undergoing the course, this survey will include REB consent form
+- grind ear hair trimmers
+- have a meeting with doctors to chat about the challenges informally regarding technique, instruments and how to make uinstruments better -&gt; find themes that generate quesstions and email these to doctors around the world 
+'Survey development: 1. had informal discussions with Dr. James, Cushing, Papsin, Parkes, Marco, and participants of the course. Asked them about their feelings of TEES and what the technical limitations are, what technological improvements can be made. This helped me develop questions in the preliminary survey /Users/arushriswarup/Documents/GitHub/Graduate-School/REB. Which was circulated in the course. Then feedback helped develop a better survey which will be sent out to surgeons locally, members of the course, board members of IWGEES. This will develop the final survey which will be sent to otologists globally  (approved by REB). </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Study 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Needs Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - participants = surgeons, new REB main application name: Needs Analysis and Time Flow Study to Assess EES
+Study 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Time Flow Study</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - participants = surgeons, patients with tympanoplasty and cholesteatoma. 
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Cholesteatoma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> patients -&gt; REB application ammendment name: “Prospective study of predictive factors in paediatric cholesteatoma” , add consent to ask for CT scan use and record time of surgeries via data collection form
+                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tympanoplasty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>patients -&gt; new REB main application name: Needs Analysis and Time Flow Study to Assess EES, only recordings will be collected in the data collection form (no CT scans)</t>
     </r>
   </si>
 </sst>
@@ -1317,7 +1404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1391,10 +1478,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1453,7 +1540,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="11" customFormat="1" ht="222">
+    <row r="4" spans="1:12" s="11" customFormat="1" ht="269.25">
       <c r="A4" s="36" t="s">
         <v>98</v>
       </c>
@@ -1462,29 +1549,29 @@
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:12" s="11" customFormat="1" ht="141.75">
       <c r="B5" s="35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="110.25">
@@ -1496,7 +1583,7 @@
         <v>87</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="11" customFormat="1" ht="236.25">
@@ -1504,14 +1591,14 @@
         <v>97</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>86</v>
@@ -1605,7 +1692,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -1618,13 +1705,13 @@
     <row r="15" spans="1:12" s="8" customFormat="1">
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -1655,7 +1742,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="11" customFormat="1" ht="126">
@@ -1663,7 +1750,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>34</v>
@@ -1679,7 +1766,7 @@
         <v>37</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="2:6" s="18" customFormat="1" ht="63">
@@ -1738,7 +1825,7 @@
     </row>
     <row r="29" spans="2:6" ht="33">
       <c r="B29" s="39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>43</v>
@@ -1781,12 +1868,12 @@
         <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="284.25">
       <c r="B37" s="40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>93</v>
@@ -1839,15 +1926,15 @@
     </row>
     <row r="45" spans="2:5" ht="94.5">
       <c r="B45" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -273,10 +273,6 @@
     <t>workspace analysis to determine the size of the instruments</t>
   </si>
   <si>
-    <t>- how to develop using RedCap
-- how to analyze using statistical approach (refer to papers)</t>
-  </si>
-  <si>
     <t>- milling and shaping small pieces of metal - nitinol can be preshaped using heat and a 'stencil'
 - how to optimize design of the handle for ergonomics
 - prototyping the mechanical mechanism to actuate the tool</t>
@@ -498,9 +494,6 @@
     <t>Objective:</t>
   </si>
   <si>
-    <t>A. Needs Analysis</t>
-  </si>
-  <si>
     <t>B. Time Flow Study</t>
   </si>
   <si>
@@ -598,9 +591,6 @@
     </r>
   </si>
   <si>
-    <t>C. Workspace Analysis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Make a platform to integrate 3D model of ear (by using CT scans) and instruments to test instrument functionality
 '-determine the workspace that is available to use tools in 
 - what are the obstacles? </t>
@@ -671,131 +661,218 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">- scan of 7 year old boy available through CIGITI -&gt; make into STL using mimics, include the ear drum(?) (may have to overlay)
+    <t>Virtual Model</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Study 1: a) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Needs Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - participants = surgeons, new REB main application name: Needs Analysis and Time Flow Study to Assess EES
+b) Time flow study - participants = surgeons, patients with tympanoplasty and cholesteatoma. 
+Study 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Existing study for cholesteatoma (goal: to access CT scans of cholesteatoma patients) - this is to use their CT scans to make the virtual model to help design the geometry and size of instruments.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REB application ammendment name: “Prospective study of predictive factors in paediatric cholesteatoma” , add consent to ask for CT scan use and record time of surgeries via data collection form</t>
+    </r>
+  </si>
+  <si>
+    <t>C. Virtual Model</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- scan of 7 year old boy available through CIGITI -&gt; make into STL using mimics, (model can not pickup the ear drum)
 - 3D print using powder printer -&gt; show Dr. James to ensure the print is accurate/if thresholds should be modified/edited
-- virtual model: orient triangles so all normal vectors pointing in one direction -&gt; import into solidworks (or magics, geomagic, etc.) -&gt; add endoscope + simple tool -&gt; ask Dr. James to highlight certain areas that need to be accessed (e.g. sinus tympani, antrum) -&gt;  play around with splines to find optimal curvature to reach specific areas
-- start with feeding in/analyzing a very simple tool eg. One bend and then add more functionalities/mechanisms to the tool and analyze how they will be able to move in the worskpace
+- virtual model: Magics -&gt; added endoscope +  tool -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ask Dr. James to highlight certain areas that need to be accessed (e.g. sinus tympani, antrum) -&gt;  play around with splines to find optimal curvature to reach specific areas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- start with rosen needle,  analyze how tools will be able to move in the worskpace
 - need to constrain the movement of tool in the model
-- orientation of the tip -&gt; electromagnetic sensor (NDI) on the tool tip + 3D model with a block (for registration of the tool with sensor in order to provide a reference for the map) + Dr. James -&gt; map the angular orientation of the tip to determine the angular ranges that the tip needs to go (e.g. +/- 30 deg? 60deg? 90deg?) 
 </t>
     </r>
     <r>
       <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> orientation of the tip -&gt; electromagnetic sensor (NDI) on the tool tip + 3D model with a block (for registration of the tool with sensor in order to provide a reference for the map) + Dr. James -&gt; map the angular orientation of the tip to determine the angular ranges that the tip needs to go (e.g. +/- 30 deg? 60deg? 90deg?)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>- instead: use the viewing angles of the endoscope to determine the max angle the tool needs to articulate to as this is the visual boundary that the tools need to stay in during surgery so the surgeon can always see where the tool is and what it is doing.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>-&gt; this will dictate the design of the tip. if wrist - will dictate the optimal curvature, arc length required and how many notches/size of the notches; concentric tubes - curvature of the tube and arc length</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> - survey method: go on RedCap (formal SickKids survey/questionaire method) and formulate and send out the questionaire, use delphi method to figure out the criteria (time consuming) - requires many rounds of survey and group converges to the 'right' answer - this will take a long time but will have time to do, well defined method, more likelyhood of publication, audience will accept this method
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- how to develop using RedCap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- how to analyze using statistical approach (refer to papers)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - survey: used RedCap and send out the questionaire, use 2-round delphi method to figure out the consensus of the questionaire (ie. which instrument functionalities are agreed upon) - publicly accepted method of conducting a survey study
 - quality function deployment - use matrices how well the design satisfies user's needs (look this up) - Jan has done this before, used in rehab engineering, can be used to design the questionaire and time flow study 
-- 6 months
-surgical skills course October 18 - ask surgeons about their experience a few months after undergoing the course, this survey will include REB consent form
-- grind ear hair trimmers
-- have a meeting with doctors to chat about the challenges informally regarding technique, instruments and how to make uinstruments better -&gt; find themes that generate quesstions and email these to doctors around the world 
 'Survey development: 1. had informal discussions with Dr. James, Cushing, Papsin, Parkes, Marco, and participants of the course. Asked them about their feelings of TEES and what the technical limitations are, what technological improvements can be made. This helped me develop questions in the preliminary survey /Users/arushriswarup/Documents/GitHub/Graduate-School/REB. Which was circulated in the course. Then feedback helped develop a better survey which will be sent out to surgeons locally, members of the course, board members of IWGEES. This will develop the final survey which will be sent to otologists globally  (approved by REB). </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Study 1: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Needs Analysis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - participants = surgeons, new REB main application name: Needs Analysis and Time Flow Study to Assess EES
-Study 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Time Flow Study</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - participants = surgeons, patients with tympanoplasty and cholesteatoma. 
-               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Cholesteatoma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> patients -&gt; REB application ammendment name: “Prospective study of predictive factors in paediatric cholesteatoma” , add consent to ask for CT scan use and record time of surgeries via data collection form
-                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tympanoplasty </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>patients -&gt; new REB main application name: Needs Analysis and Time Flow Study to Assess EES, only recordings will be collected in the data collection form (no CT scans)</t>
-    </r>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -898,6 +975,41 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1009,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1085,9 +1197,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1127,6 +1236,21 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1404,7 +1528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1478,10 +1602,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1490,7 +1614,7 @@
     <col min="3" max="3" width="27.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="5" width="94.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="66" style="1" customWidth="1"/>
+    <col min="6" max="6" width="110.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="38.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="77.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="74.875" style="1" customWidth="1"/>
@@ -1503,29 +1627,29 @@
       <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="C1" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="81.95" customHeight="1">
       <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="33" t="s">
         <v>100</v>
-      </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="34" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1540,38 +1664,38 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="11" customFormat="1" ht="269.25">
-      <c r="A4" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>103</v>
+    <row r="4" spans="1:12" s="11" customFormat="1" ht="159">
+      <c r="A4" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>128</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="37" t="s">
-        <v>126</v>
-      </c>
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:12" s="11" customFormat="1" ht="141.75">
-      <c r="B5" s="35" t="s">
-        <v>104</v>
+      <c r="B5" s="34" t="s">
+        <v>102</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="110.25">
@@ -1580,38 +1704,40 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" ht="236.25">
-      <c r="A7" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="12"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="11" customFormat="1" ht="233.25">
+      <c r="A7" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="D7" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>125</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="48" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1619,8 +1745,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="33" customHeight="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1632,51 +1758,51 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="33" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="48" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>88</v>
+      <c r="E11" s="49" t="s">
+        <v>87</v>
       </c>
       <c r="F11" s="9"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="50" t="s">
         <v>94</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>95</v>
       </c>
       <c r="F12" s="9"/>
       <c r="K12" s="10"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" s="30" customFormat="1" ht="126.75">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="31"/>
@@ -1684,15 +1810,15 @@
         <v>38</v>
       </c>
       <c r="E13" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>91</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -1705,13 +1831,13 @@
     <row r="15" spans="1:12" s="8" customFormat="1">
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -1742,7 +1868,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="11" customFormat="1" ht="126">
@@ -1750,7 +1876,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>34</v>
@@ -1766,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="2:6" s="18" customFormat="1" ht="63">
@@ -1816,7 +1942,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="D27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -1824,8 +1950,8 @@
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="2:6" ht="33">
-      <c r="B29" s="39" t="s">
-        <v>118</v>
+      <c r="B29" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>43</v>
@@ -1865,21 +1991,21 @@
     </row>
     <row r="36" spans="2:5" ht="31.5">
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="284.25">
-      <c r="B37" s="40" t="s">
-        <v>120</v>
+      <c r="B37" s="39" t="s">
+        <v>117</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -1897,7 +2023,7 @@
         <v>53</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="204.75">
@@ -1905,7 +2031,7 @@
         <v>56</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="126">
@@ -1913,7 +2039,7 @@
         <v>54</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="157.5">
@@ -1921,20 +2047,20 @@
         <v>55</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="94.5">
       <c r="B45" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1971,92 +2097,92 @@
     </row>
     <row r="2" spans="2:7" s="28" customFormat="1" ht="37.5">
       <c r="B2" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>62</v>
-      </c>
       <c r="F2" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5">
       <c r="B3" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="47.25">
       <c r="B4" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>72</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="47.25">
       <c r="B5" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>78</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="47.25">
       <c r="B6" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="27" t="s">
         <v>84</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -216,9 +216,6 @@
     <t>give these out as a present to the visiting international surgeons and can ask them if they are using them and if they are useful</t>
   </si>
   <si>
-    <t>- goal: learning</t>
-  </si>
-  <si>
     <t>cleaning obstructed suction tool</t>
   </si>
   <si>
@@ -866,6 +863,36 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>D. Tool Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- fatigue analysis of the tip to ensure it won't break when articulated
+- lifetime analysis
+- strain profile
+- is it staying in the elastic region while being articulated?
+- analyse the stiffness of the tip at each bending angle (straight vs. bent) -&gt; the unbent tip would be less stiff than the mechanically reinforced bent tip
+-  how to make it stiffer? </t>
+  </si>
+  <si>
+    <t>Mechanical Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sterilizability </t>
+  </si>
+  <si>
+    <t>- how to ensure the full thing is fully sterilized after use? 
+- there are notches and cable and assembly is required - make the product easily disassembled</t>
+  </si>
+  <si>
+    <t>- fatigue, lifetime and stiffness testing</t>
+  </si>
+  <si>
+    <t>- sterilizable?</t>
+  </si>
+  <si>
+    <t>- goal: learning the foundations of TEES</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1216,6 +1243,21 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1237,19 +1279,17 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1528,7 +1568,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1600,7 +1640,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -1627,29 +1667,29 @@
       <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="81.95" customHeight="1">
       <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="33" t="s">
         <v>99</v>
-      </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="33" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1666,36 +1706,36 @@
     </row>
     <row r="4" spans="1:12" s="11" customFormat="1" ht="159">
       <c r="A4" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>128</v>
+        <v>96</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>127</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:12" s="11" customFormat="1" ht="141.75">
       <c r="B5" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>106</v>
-      </c>
       <c r="F5" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="110.25">
@@ -1704,49 +1744,49 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="11" customFormat="1" ht="233.25">
+      <c r="A7" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" ht="233.25">
-      <c r="A7" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="41" t="s">
+      <c r="E7" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>125</v>
-      </c>
       <c r="F7" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="47" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="41" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="33" customHeight="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1758,44 +1798,44 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="33" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="47" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="41" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="49" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="49" t="s">
-        <v>87</v>
+      <c r="E11" s="42" t="s">
+        <v>86</v>
       </c>
       <c r="F11" s="9"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="49" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="43" t="s">
         <v>93</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>94</v>
       </c>
       <c r="F12" s="9"/>
       <c r="K12" s="10"/>
@@ -1807,260 +1847,288 @@
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="32" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="E13" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="14" spans="1:12" s="53" customFormat="1" ht="110.25">
+      <c r="B14" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="55"/>
+    </row>
+    <row r="15" spans="1:12" s="53" customFormat="1" ht="31.5">
+      <c r="B15" s="52"/>
+      <c r="C15" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="55"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" s="8" customFormat="1">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" s="8" customFormat="1">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="8" customFormat="1" ht="47.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6" s="11" customFormat="1" ht="126">
+      <c r="C20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="2:6" s="11" customFormat="1" ht="63">
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" s="18" customFormat="1" ht="47.25">
+      <c r="C22" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" s="8" customFormat="1" ht="47.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="2:6" s="11" customFormat="1" ht="78.75">
-      <c r="C18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" s="11" customFormat="1" ht="126">
-      <c r="C19" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="2:6" s="18" customFormat="1" ht="47.25">
-      <c r="C20" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" s="18" customFormat="1" ht="63">
-      <c r="B21" s="17"/>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6">
+    </row>
+    <row r="23" spans="2:6" s="18" customFormat="1" ht="63">
+      <c r="B23" s="17"/>
       <c r="C23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:6" ht="31.5">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" ht="31.5">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" ht="94.5">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:6" ht="94.5">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:6" ht="47.25">
+      <c r="D28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:6" ht="47.25">
-      <c r="D26" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="D27" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:6" ht="33">
-      <c r="B29" s="38" t="s">
-        <v>115</v>
-      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="D29" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:6" ht="33">
+      <c r="B31" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="1"/>
-      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="23"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="2:5" ht="31.5">
-      <c r="B34" s="1" t="s">
-        <v>42</v>
-      </c>
+    <row r="34" spans="2:5">
+      <c r="B34" s="23"/>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="2:5" ht="31.5">
       <c r="B36" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="2:5" ht="31.5">
+      <c r="B38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="284.25">
+      <c r="B39" s="39" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" ht="284.25">
-      <c r="B37" s="39" t="s">
+      <c r="D39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="7"/>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="2:5" ht="63">
+      <c r="B42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="204.75">
+      <c r="B43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="126">
+      <c r="B44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="157.5">
+      <c r="B45" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="94.5">
+      <c r="B47" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="7"/>
-      <c r="C39"/>
-    </row>
-    <row r="40" spans="2:5" ht="63">
-      <c r="B40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="204.75">
-      <c r="B41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="126">
-      <c r="B42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="157.5">
-      <c r="B43" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="94.5">
-      <c r="B45" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="3" t="s">
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="1" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2097,92 +2165,92 @@
     </row>
     <row r="2" spans="2:7" s="28" customFormat="1" ht="37.5">
       <c r="B2" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>61</v>
-      </c>
       <c r="F2" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5">
       <c r="B3" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="47.25">
       <c r="B4" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="47.25">
       <c r="B5" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>77</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="47.25">
       <c r="B6" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="27" t="s">
         <v>83</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="132">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -255,12 +255,6 @@
     <t>- print some anatomy at the lab to practice - need CT scan from Dr. James</t>
   </si>
   <si>
-    <t xml:space="preserve">Technical Hurdles: </t>
-  </si>
-  <si>
-    <t>questionaire</t>
-  </si>
-  <si>
     <t>fabrication of instruments</t>
   </si>
   <si>
@@ -459,9 +453,6 @@
     </r>
   </si>
   <si>
-    <t>Hamlyn Symposium--&gt;</t>
-  </si>
-  <si>
     <t>IWGEES Conference--&gt;</t>
   </si>
   <si>
@@ -832,37 +823,6 @@
       </rPr>
       <t>-&gt; this will dictate the design of the tip. if wrist - will dictate the optimal curvature, arc length required and how many notches/size of the notches; concentric tubes - curvature of the tube and arc length</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- how to develop using RedCap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- how to analyze using statistical approach (refer to papers)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> - survey: used RedCap and send out the questionaire, use 2-round delphi method to figure out the consensus of the questionaire (ie. which instrument functionalities are agreed upon) - publicly accepted method of conducting a survey study
-- quality function deployment - use matrices how well the design satisfies user's needs (look this up) - Jan has done this before, used in rehab engineering, can be used to design the questionaire and time flow study 
-'Survey development: 1. had informal discussions with Dr. James, Cushing, Papsin, Parkes, Marco, and participants of the course. Asked them about their feelings of TEES and what the technical limitations are, what technological improvements can be made. This helped me develop questions in the preliminary survey /Users/arushriswarup/Documents/GitHub/Graduate-School/REB. Which was circulated in the course. Then feedback helped develop a better survey which will be sent out to surgeons locally, members of the course, board members of IWGEES. This will develop the final survey which will be sent to otologists globally  (approved by REB). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
   </si>
   <si>
     <t>D. Tool Design</t>
@@ -894,12 +854,21 @@
   <si>
     <t>- goal: learning the foundations of TEES</t>
   </si>
+  <si>
+    <t>A. Needs Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - survey: used RedCap and send out the questionaire, use 2-round delphi method to figure out the consensus of the questionaire (ie. which instrument functionalities are agreed upon) - publicly accepted method of conducting a survey study
+- quality function deployment - use matrices how well the design satisfies user's needs (look this up) - Jan has done this before, used in rehab engineering, can be used to design the questionaire and time flow study 
+'Survey development: 1. had informal discussions with Dr. James, Cushing, Papsin, Parkes, Marco, and participants of the course. Asked them about their feelings of TEES and what the technical limitations are, what technological improvements can be made. This helped me develop questions in the preliminary survey /Users/arushriswarup/Documents/GitHub/Graduate-School/REB. Which was circulated in the course. Then feedback helped develop a better survey which will be sent out to surgeons locally, members of the course, board members of IWGEES. This will develop the final survey which will be sent to otologists globally  (approved by REB). 
+- for statistical analysis refer to papers that have presented surveys (using the continuous scale) </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1002,13 +971,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1243,19 +1205,32 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1270,27 +1245,14 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1568,7 +1530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1640,12 +1602,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1663,33 +1625,33 @@
     <col min="12" max="12" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="44.1" customHeight="1">
+    <row r="1" spans="1:12">
       <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="C1" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:12" ht="81.95" customHeight="1">
+    <row r="2" spans="1:12">
       <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="C2" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1704,38 +1666,38 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="11" customFormat="1" ht="159">
+    <row r="4" spans="1:12" s="11" customFormat="1" ht="174.75">
       <c r="A4" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:12" s="11" customFormat="1" ht="141.75">
       <c r="B5" s="34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="110.25">
@@ -1744,35 +1706,35 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="11" customFormat="1" ht="233.25">
-      <c r="A7" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>123</v>
+      <c r="A7" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>120</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>124</v>
-      </c>
       <c r="F7" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="40" t="s">
         <v>6</v>
       </c>
@@ -1785,8 +1747,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="33" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1798,8 +1760,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="33" customHeight="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="47"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="40" t="s">
         <v>7</v>
       </c>
@@ -1811,8 +1773,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="42" t="s">
         <v>9</v>
       </c>
@@ -1820,22 +1782,22 @@
         <v>10</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F11" s="9"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A12" s="51"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F12" s="9"/>
       <c r="K12" s="10"/>
@@ -1847,46 +1809,46 @@
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="32" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="53" customFormat="1" ht="110.25">
-      <c r="B14" s="52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="46" customFormat="1" ht="110.25">
+      <c r="B14" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="48"/>
+    </row>
+    <row r="15" spans="1:12" s="46" customFormat="1" ht="31.5">
+      <c r="B15" s="45"/>
+      <c r="C15" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="55"/>
-    </row>
-    <row r="15" spans="1:12" s="53" customFormat="1" ht="31.5">
-      <c r="B15" s="52"/>
-      <c r="C15" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="55"/>
+      <c r="E15" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="48"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
@@ -1899,13 +1861,13 @@
     <row r="17" spans="2:6" s="8" customFormat="1">
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -1932,7 +1894,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>34</v>
@@ -1948,7 +1910,7 @@
         <v>36</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:6" s="18" customFormat="1" ht="47.25">
@@ -1960,7 +1922,7 @@
         <v>37</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="2:6" s="18" customFormat="1" ht="63">
@@ -2010,7 +1972,7 @@
     </row>
     <row r="29" spans="2:6">
       <c r="D29" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -2019,7 +1981,7 @@
     </row>
     <row r="31" spans="2:6" ht="33">
       <c r="B31" s="38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>42</v>
@@ -2059,76 +2021,58 @@
     </row>
     <row r="38" spans="2:5" ht="31.5">
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="284.25">
       <c r="B39" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="204.75">
+      <c r="B40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="126">
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="157.5">
+      <c r="B42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="94.5">
+      <c r="B44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40"/>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="7"/>
-      <c r="C41"/>
-    </row>
-    <row r="42" spans="2:5" ht="63">
-      <c r="B42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="204.75">
-      <c r="B43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="126">
-      <c r="B44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="157.5">
-      <c r="B45" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="94.5">
-      <c r="B47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2165,92 +2109,92 @@
     </row>
     <row r="2" spans="2:7" s="28" customFormat="1" ht="37.5">
       <c r="B2" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>72</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5">
       <c r="B3" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="47.25">
       <c r="B4" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="47.25">
       <c r="B5" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="47.25">
       <c r="B6" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>81</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -243,9 +243,6 @@
     <t>how much to bend laser before fibres break</t>
   </si>
   <si>
-    <t>weld thomisin end effector onto a 19Fr suction tube, bend 19Fr sucker into same curvature as rosen and file it to sharpen the end and either put suction hole on the lateral or medial end.</t>
-  </si>
-  <si>
     <t xml:space="preserve">suction tube that can slide down the endoscope </t>
   </si>
   <si>
@@ -862,6 +859,18 @@
 - quality function deployment - use matrices how well the design satisfies user's needs (look this up) - Jan has done this before, used in rehab engineering, can be used to design the questionaire and time flow study 
 'Survey development: 1. had informal discussions with Dr. James, Cushing, Papsin, Parkes, Marco, and participants of the course. Asked them about their feelings of TEES and what the technical limitations are, what technological improvements can be made. This helped me develop questions in the preliminary survey /Users/arushriswarup/Documents/GitHub/Graduate-School/REB. Which was circulated in the course. Then feedback helped develop a better survey which will be sent out to surgeons locally, members of the course, board members of IWGEES. This will develop the final survey which will be sent to otologists globally  (approved by REB). 
 - for statistical analysis refer to papers that have presented surveys (using the continuous scale) </t>
+  </si>
+  <si>
+    <t>weld thomisin end effector onto a 19Ga suction tube, bend 19Fr sucker into same curvature as rosen and file it to sharpen the end and either put suction hole on the lateral or medial end.</t>
+  </si>
+  <si>
+    <t>curved round knife</t>
+  </si>
+  <si>
+    <t>- straight round knife causes trauma to to the skin when trying to reach about a curve and if it is curved, this can be avoided</t>
+  </si>
+  <si>
+    <t>- use virtual model to find the optimal curvature to let the tip inside the ear canal yet allow for reaching around a curve</t>
   </si>
 </sst>
 </file>
@@ -1245,13 +1254,13 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1530,7 +1539,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1605,9 +1614,9 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1630,7 +1639,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
@@ -1641,17 +1650,17 @@
         <v>19</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
       <c r="F2" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1668,36 +1677,36 @@
     </row>
     <row r="4" spans="1:12" s="11" customFormat="1" ht="174.75">
       <c r="A4" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:12" s="11" customFormat="1" ht="141.75">
       <c r="B5" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="F5" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="110.25">
@@ -1706,34 +1715,34 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="11" customFormat="1" ht="233.25">
+      <c r="A7" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" ht="233.25">
-      <c r="A7" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="51" t="s">
+      <c r="E7" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>121</v>
-      </c>
       <c r="F7" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33" customHeight="1">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="52"/>
       <c r="C8" s="40" t="s">
         <v>6</v>
@@ -1743,11 +1752,11 @@
         <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="33" customHeight="1">
-      <c r="A9" s="54"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="52"/>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1760,7 +1769,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="33" customHeight="1">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="52"/>
       <c r="C10" s="40" t="s">
         <v>7</v>
@@ -1773,7 +1782,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="52"/>
       <c r="C11" s="42" t="s">
         <v>9</v>
@@ -1782,22 +1791,22 @@
         <v>10</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="9"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" ht="33" customHeight="1">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="53"/>
       <c r="C12" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="43" t="s">
         <v>90</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>91</v>
       </c>
       <c r="F12" s="9"/>
       <c r="K12" s="10"/>
@@ -1809,46 +1818,46 @@
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>87</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="46" customFormat="1" ht="110.25">
       <c r="B14" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="48" t="s">
         <v>122</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>123</v>
       </c>
       <c r="F14" s="48"/>
     </row>
     <row r="15" spans="1:12" s="46" customFormat="1" ht="31.5">
       <c r="B15" s="45"/>
       <c r="C15" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="48" t="s">
         <v>125</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>126</v>
       </c>
       <c r="F15" s="48"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
@@ -1861,13 +1870,13 @@
     <row r="17" spans="2:6" s="8" customFormat="1">
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -1894,7 +1903,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>34</v>
@@ -1910,7 +1919,7 @@
         <v>36</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:6" s="18" customFormat="1" ht="47.25">
@@ -1922,7 +1931,7 @@
         <v>37</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:6" s="18" customFormat="1" ht="63">
@@ -1958,30 +1967,38 @@
     <row r="27" spans="2:6" ht="94.5">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:6" ht="47.25">
+      <c r="C28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:6" ht="47.25">
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="D29" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
+    </row>
+    <row r="29" spans="2:6" ht="31.5">
+      <c r="C29" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="47.25">
       <c r="B30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="31" spans="2:6" ht="33">
       <c r="B31" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>42</v>
@@ -2021,58 +2038,58 @@
     </row>
     <row r="38" spans="2:5" ht="31.5">
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="284.25">
       <c r="B39" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="204.75">
       <c r="B40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="126">
       <c r="B41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="157.5">
       <c r="B42" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="94.5">
       <c r="B44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2109,92 +2126,92 @@
     </row>
     <row r="2" spans="2:7" s="28" customFormat="1" ht="37.5">
       <c r="B2" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>58</v>
-      </c>
       <c r="F2" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="94.5">
       <c r="B3" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="47.25">
       <c r="B4" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>68</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="47.25">
       <c r="B5" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>74</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="47.25">
       <c r="B6" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="27" t="s">
         <v>80</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
